--- a/allPages/allPagesRU-SEO.xlsx
+++ b/allPages/allPagesRU-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="270">
   <si>
     <t>Date</t>
   </si>
@@ -344,6 +344,60 @@
   </si>
   <si>
     <t>О нас</t>
+  </si>
+  <si>
+    <t>03.07.2024</t>
+  </si>
+  <si>
+    <t>Faicebook</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3.com</t>
+  </si>
+  <si>
+    <t>3.com/3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>02.11.2024</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>2.com</t>
+  </si>
+  <si>
+    <t>2.com/2</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>01.11.2024</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.com</t>
+  </si>
+  <si>
+    <t>1.com/1</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>https://t-h-logistics.com/customs_clearance</t>
@@ -557,9 +611,6 @@
     <t>аккредитация таможня, онлайн аккредитация, процедура аккредитации, таможенные процедуры, документы для таможни, таможенные услуги</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
     <t>03.11.2024</t>
   </si>
   <si>
@@ -617,7 +668,7 @@
     <t>таможенный код товара, код ТН ВЭД, классификация товаров, товарная номенклатура, код экспортного товара, импортный код, гармонизированная система, HS код, таможенная очистка, кодирование товаров, таможенные тарифы, классификатор товаров, товарная группа, декларирование товара, таможенная декларация</t>
   </si>
   <si>
-    <t>04.06.2024</t>
+    <t>03.06.2024</t>
   </si>
   <si>
     <t>https://t-h-logistics.com/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
@@ -629,9 +680,6 @@
     <t>способы доставки контейнеров, виды транспортировки контейнеров, логистика контейнерных перевозок, методы перевозки контейнеров, транспортировка грузов в контейнерах, контейнерные перевозки, варианты транспортировки контейнеров, эффективные способы доставки контейнеров</t>
   </si>
   <si>
-    <t>03.06.2024</t>
-  </si>
-  <si>
     <t>https://t-h-logistics.com/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
   </si>
   <si>
@@ -744,6 +792,36 @@
   </si>
   <si>
     <t>Одесса, порты, экспорт, агропродукция, зерно, Украина, продовольствие</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>https://news.com.ua/</t>
+  </si>
+  <si>
+    <t>https://news.com.ua/post1.html</t>
+  </si>
+  <si>
+    <t>таможенне оформления 1</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>superblogs.com.ua</t>
+  </si>
+  <si>
+    <t>https:/superblogs.com.ua/post1.html</t>
+  </si>
+  <si>
+    <t>таможенне оформления 2</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K83"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2225,95 +2303,95 @@
         <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2321,13 +2399,13 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2353,16 +2431,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2388,16 +2466,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2423,16 +2501,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2458,16 +2536,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2493,16 +2571,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2531,13 +2609,13 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2563,16 +2641,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2598,16 +2676,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2633,16 +2711,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2668,16 +2746,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2703,16 +2781,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2738,16 +2816,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2773,16 +2851,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2808,16 +2886,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2843,16 +2921,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2878,16 +2956,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2913,16 +2991,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2948,16 +3026,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2983,16 +3061,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3018,16 +3096,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3053,16 +3131,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3088,16 +3166,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3123,16 +3201,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3158,16 +3236,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3193,16 +3271,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3228,16 +3306,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3263,16 +3341,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3298,16 +3376,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3333,16 +3411,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3368,16 +3446,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3403,16 +3481,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3438,16 +3516,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3473,16 +3551,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3508,16 +3586,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3543,16 +3621,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3578,16 +3656,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3613,16 +3691,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3648,16 +3726,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3683,16 +3761,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3718,16 +3796,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3753,16 +3831,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3788,16 +3866,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3823,16 +3901,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3858,16 +3936,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3893,16 +3971,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3923,6 +4001,111 @@
         <v>12</v>
       </c>
       <c r="K80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81" t="s">
+        <v>261</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" t="s">
+        <v>262</v>
+      </c>
+      <c r="I81" t="s">
+        <v>263</v>
+      </c>
+      <c r="J81" t="s">
+        <v>264</v>
+      </c>
+      <c r="K81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" t="s">
+        <v>267</v>
+      </c>
+      <c r="I82" t="s">
+        <v>268</v>
+      </c>
+      <c r="J82" t="s">
+        <v>269</v>
+      </c>
+      <c r="K82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesRU-SEO.xlsx
+++ b/allPages/allPagesRU-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="693">
   <si>
     <t>Date</t>
   </si>
@@ -52,13 +52,493 @@
     <t/>
   </si>
   <si>
-    <t>04.11.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/123-123</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>05.11.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainPage </t>
+  </si>
+  <si>
+    <t>mainPage</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>Sabmit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500px.com</t>
+  </si>
+  <si>
+    <t>https://500px.com/photo/1081331777/zacikavlennist%D1%8C-perevezennyam-vantazhiv-u-kiyevi-by-oscar-4x4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>list.ly/l</t>
+  </si>
+  <si>
+    <t>https://list.ly/l/9Fk8</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>cybo.com</t>
+  </si>
+  <si>
+    <t>https://www.cybo.com/UA-biz/%D0%97%D0%B0%D0%BF%D0%BE%D0%B2%D0%BD%D0%B5%D0%BD%D0%BD%D1%8F-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D1%97-%D0%B4%D0%B5%D0%BA%D0%BB%D0%B0%D1%80%D0%B0%D1%86%D1%96%D1%97_10</t>
+  </si>
+  <si>
+    <t>bgtop.net</t>
+  </si>
+  <si>
+    <t>https://bgtop.net/review/1719341486</t>
+  </si>
+  <si>
+    <t>photoclub.canadiangeographic.ca</t>
+  </si>
+  <si>
+    <t>https://photoclub.canadiangeographic.ca/profile/21300890</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>telegra.ph</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/Tamozhennoe-Oformlenie-Gruzov-Uslugi-Trans-Houp-10-07</t>
+  </si>
+  <si>
+    <t>band.us</t>
+  </si>
+  <si>
+    <t>https://band.us/band/93264789/post/81</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>bizol.ua</t>
+  </si>
+  <si>
+    <t>http://www.bizol.ua/phpBB3/viewtopic.php?f=9&amp;t=116316</t>
+  </si>
+  <si>
+    <t>mazdaclub.ua</t>
+  </si>
+  <si>
+    <t>http://www.mazdaclub.ua/forum/index.php?showtopic=199551</t>
+  </si>
+  <si>
+    <t>deviantart.com</t>
+  </si>
+  <si>
+    <t>https://www.deviantart.com/tampicluc/journal/logistics-993122882</t>
+  </si>
+  <si>
+    <t>steemit.com</t>
+  </si>
+  <si>
+    <t>https://steemit.com/ico/@nikitaneos/smart-containers-revolyuciya-v-logistike-dlya-farmacevtiki-i-pishevoi-promyshlennosti</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>tapatalk.com</t>
+  </si>
+  <si>
+    <t>https://www.tapatalk.com/groups/korz/viewtopic.php?f=2&amp;t=36&amp;from_new_topic=1</t>
+  </si>
+  <si>
+    <t>behance.net</t>
+  </si>
+  <si>
+    <t>https://www.behance.net/gallery/184849887/carrier?share=1</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>socgazeta.wordpress.com</t>
+  </si>
+  <si>
+    <t>https://socgazeta.wordpress.com/2024/05/29/logistika-v-kieve-uslugi-i-preimushestva/</t>
+  </si>
+  <si>
+    <t>доставка контейнерів з Китаю</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>app.socie.com.br</t>
+  </si>
+  <si>
+    <t>https://app.socie.com.br/SamuelPhillips</t>
+  </si>
+  <si>
+    <t>ВЭД консультирование</t>
+  </si>
+  <si>
+    <t>robot-forum.com</t>
+  </si>
+  <si>
+    <t>https://www.robot-forum.com/user/147509-williamanderson/</t>
+  </si>
+  <si>
+    <t>поиск поставщиков</t>
+  </si>
+  <si>
+    <t>gamesfort.net</t>
+  </si>
+  <si>
+    <t>https://www.gamesfort.net/profile/89287/SophiaWalk.html</t>
+  </si>
+  <si>
+    <t>услуга импортера</t>
+  </si>
+  <si>
+    <t>easyfie.com</t>
+  </si>
+  <si>
+    <t>https://www.easyfie.com/EthanHarris</t>
+  </si>
+  <si>
+    <t>таможенный брокер</t>
+  </si>
+  <si>
+    <t>openstreetmap.org</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/user/ThiagoFernande</t>
+  </si>
+  <si>
+    <t>консультации вэд</t>
+  </si>
+  <si>
+    <t>20/04/2024</t>
+  </si>
+  <si>
+    <t>vozlublennaya.mybb.sumy.ua</t>
+  </si>
+  <si>
+    <t>https://vozlublennaya.mybb.sumy.ua/viewtopic.php?id=17801</t>
+  </si>
+  <si>
+    <t>знайти портове експедирування</t>
+  </si>
+  <si>
+    <t>belopolye.mybb.sumy.ua</t>
+  </si>
+  <si>
+    <t>https://belopolye.mybb.sumy.ua/viewtopic.php?id=4715</t>
+  </si>
+  <si>
+    <t>мультимодальні перевезення</t>
+  </si>
+  <si>
+    <t>kharkov.forum.cool</t>
+  </si>
+  <si>
+    <t>https://kharkov.forum.cool/viewtopic.php?id=5905</t>
+  </si>
+  <si>
+    <t>Доставка вантажів</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>hero.izmail-city.com</t>
+  </si>
+  <si>
+    <t>https://hero.izmail-city.com/forum/read.php?6,18301</t>
+  </si>
+  <si>
+    <t>доставка з китаю</t>
+  </si>
+  <si>
+    <t>freeboard.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.freeboard.com.ua/forum/viewtopic.php?pid=957793</t>
+  </si>
+  <si>
+    <t>міжнародна доставка з Європи</t>
+  </si>
+  <si>
+    <t>hf.ua</t>
+  </si>
+  <si>
+    <t>https://hf.ua/viewtopic.php?t=145081</t>
+  </si>
+  <si>
+    <t>Митне оформлення Cookies</t>
+  </si>
+  <si>
+    <t>magiclife.ukraine7.com</t>
+  </si>
+  <si>
+    <t>https://magiclife.ukraine7.com/t5812-topic</t>
+  </si>
+  <si>
+    <t>мультимодальна логістика</t>
+  </si>
+  <si>
+    <t>gorod.kr.ua</t>
+  </si>
+  <si>
+    <t>https://gorod.kr.ua/forum/showthread.php?p=258065</t>
+  </si>
+  <si>
+    <t>заповнення митної декларації</t>
+  </si>
+  <si>
+    <t>dobrepole.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.dobrepole.com.ua/forum/32-9909-1</t>
+  </si>
+  <si>
+    <t>Сертифікат походження EUR 1</t>
+  </si>
+  <si>
+    <t>privivok.net.ua</t>
+  </si>
+  <si>
+    <t>http://www.privivok.net.ua/smf/index.php/topic,3821.new.html#new</t>
+  </si>
+  <si>
+    <t>митний брокер</t>
+  </si>
+  <si>
+    <t>krasnoselka.od.ua</t>
+  </si>
+  <si>
+    <t>http://krasnoselka.od.ua/forum/viewtopic.php?pid=4892</t>
+  </si>
+  <si>
+    <t>doska.zeleniymis.com.ua</t>
+  </si>
+  <si>
+    <t>https://doska.zeleniymis.com.ua/topic/2825-trans-hope-%D0%B2%D0%B0%D1%88-%D0%BF%D0%BE%D0%BC%D0%BE%D1%89%D0%BD%D0%B8%D0%BA-%D0%B2-%D0%BB%D0%BE%D0%B3%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B5-%D0%B8-%D1%82%D0%B0%D0%BC%D0%BE%D0%B6%D0%B5%D0%BD%D0%BD%D1%8B%D1%85-%D0%B2%D0%BE%D0%BF%D1%80%D0%BE%D1%81%D0%B0%D1%85/</t>
+  </si>
+  <si>
+    <t>консультації ЗЕД</t>
+  </si>
+  <si>
+    <t>soc-life.com</t>
+  </si>
+  <si>
+    <t>http://soc-life.com/forum/37-19056-1</t>
+  </si>
+  <si>
+    <t>Авиа перевозки</t>
+  </si>
+  <si>
+    <t>mamuli.club</t>
+  </si>
+  <si>
+    <t>https://mamuli.club/forum/topic/22206/</t>
+  </si>
+  <si>
+    <t>Авто перевозки</t>
+  </si>
+  <si>
+    <t>nsk.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://nsk.ukrbb.net/viewtopic.php?f=41&amp;t=25886</t>
+  </si>
+  <si>
+    <t>Морські контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
+  </si>
+  <si>
+    <t>human.forumieren.de</t>
+  </si>
+  <si>
+    <t>https://human.forumieren.de/t144-topic</t>
+  </si>
+  <si>
+    <t>экспортное таможенное оформление</t>
+  </si>
+  <si>
+    <t>investor.rolka.me</t>
+  </si>
+  <si>
+    <t>https://investor.rolka.me/viewtopic.php?id=4864</t>
+  </si>
+  <si>
+    <t>Цена таможенного оформления</t>
+  </si>
+  <si>
+    <t>ukro.forumotion.me</t>
+  </si>
+  <si>
+    <t>https://ukro.forumotion.me/t2852-topic</t>
+  </si>
+  <si>
+    <t>Правила Использования услуг таможенного оформления грузов</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>forumlviv.at.ua</t>
+  </si>
+  <si>
+    <t>https://forumlviv.at.ua/forum/52-6406-1</t>
+  </si>
+  <si>
+    <t>перевезення вантажів Інтермодальні</t>
+  </si>
+  <si>
+    <t>ailias.ruhelp.com</t>
+  </si>
+  <si>
+    <t>https://ailias.ruhelp.com/viewtopic.php?id=10032</t>
+  </si>
+  <si>
+    <t>розцінки митних послуг</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>bisound.com</t>
+  </si>
+  <si>
+    <t>http://www.bisound.com/forum/showthread.php?p=585409</t>
+  </si>
+  <si>
+    <t>підтвердження митної вартості</t>
+  </si>
+  <si>
+    <t>forum.ostroyke.com.ua</t>
+  </si>
+  <si>
+    <t>https://forum.ostroyke.com.ua/threads/%D0%A3%D1%81%D0%BB%D1%83%D0%B3%D0%B8-%D1%82%D0%B0%D0%BC%D0%BE%D0%B6%D0%B5%D0%BD%D0%BD%D0%BE%D0%B3%D0%BE-%D0%B1%D1%80%D0%BE%D0%BA%D0%B5%D1%80%D0%B0.21400/</t>
+  </si>
+  <si>
+    <t>Контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>golosa.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://golosa.ukrbb.net/viewtopic.php?f=12&amp;t=5105&amp;p=19175</t>
+  </si>
+  <si>
+    <t>Митне оформлення</t>
+  </si>
+  <si>
+    <t>tatuheart.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://tatuheart.ukrbb.net/viewtopic.php?f=41&amp;t=8882&amp;p=18294</t>
+  </si>
+  <si>
+    <t>Авиа доставка грузов</t>
+  </si>
+  <si>
+    <t>serpentarium.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://serpentarium.ukrbb.net/viewtopic.php?f=3&amp;t=7388&amp;p=20050</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>oih.at.ua</t>
+  </si>
+  <si>
+    <t>https://oih.at.ua/forum/63-10698-1</t>
+  </si>
+  <si>
+    <t>авіа перевезення</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t>vkontakte.forum.cool</t>
+  </si>
+  <si>
+    <t>https://vkontakte.forum.cool/viewtopic.php?id=6646</t>
+  </si>
+  <si>
+    <t>Tax Reporting in Ukraine</t>
+  </si>
+  <si>
+    <t>kramatorsk.iboard.ws</t>
+  </si>
+  <si>
+    <t>https://kramatorsk.iboard.ws/viewtopic.php?id=2221</t>
+  </si>
+  <si>
+    <t>HR search in Ukraine</t>
+  </si>
+  <si>
+    <t>hobbitka.ruhelp.com</t>
+  </si>
+  <si>
+    <t>http://hobbitka.ruhelp.com/viewtopic.php?id=2152</t>
+  </si>
+  <si>
+    <t>cost of opening a company in Ukraine</t>
+  </si>
+  <si>
+    <t>mlmwmzmillioner.rolevaya.com</t>
+  </si>
+  <si>
+    <t>https://mlmwmzmillioner.rolevaya.com/viewtopic.php?id=11127</t>
+  </si>
+  <si>
+    <t>Customs clearance</t>
+  </si>
+  <si>
+    <t>panartzp.forum.cool</t>
+  </si>
+  <si>
+    <t>http://panartzp.forum.cool/viewtopic.php?id=2634</t>
+  </si>
+  <si>
+    <t>Supplier search Ukraine</t>
+  </si>
+  <si>
+    <t>https://vozlublennaya.mybb.sumy.ua/viewtopic.php?id=12064</t>
+  </si>
+  <si>
+    <t>контейнерные перевозки</t>
+  </si>
+  <si>
+    <t>https://www.tapatalk.com/groups/dzerjinsky/viewtopic.php?p=72964</t>
+  </si>
+  <si>
+    <t>таможенного оформление</t>
   </si>
   <si>
     <t>14.08.2024</t>
@@ -67,7 +547,7 @@
     <t>https://t-h-logistics.com/business_in_ukraine</t>
   </si>
   <si>
-    <t>Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса</t>
+    <t xml:space="preserve">Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса </t>
   </si>
   <si>
     <t>торговый посредник, внешнеторговый агент, экспортный консультант, импортный брокер, ВЭД консультации, мировая торговля, международный бизнес, торговля с Украиной, внешнеэкономическая деятельность</t>
@@ -94,7 +574,7 @@
     <t>https://t-h-logistics.com/air</t>
   </si>
   <si>
-    <t>Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно</t>
+    <t xml:space="preserve">Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно </t>
   </si>
   <si>
     <t>авиаперевозки грузов Украина, авиа доставка в Украину, международная авиадоставка, транспортировка грузов самолетом, авиа логистика Украина, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
@@ -187,6 +667,15 @@
     <t>собственность в Украине, регистрация собственности, правила собственности, формы собственности в бизнесе, владение недвижимостью, собственность и налоги, виды собственности</t>
   </si>
   <si>
+    <t>bezludivka.forum.cool</t>
+  </si>
+  <si>
+    <t>https://bezludivka.forum.cool/viewtopic.php?id=739</t>
+  </si>
+  <si>
+    <t>знайти морські контейнерні перевезення</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
@@ -205,6 +694,24 @@
     <t>регистрация фирмы, бизнес в Украине, стартап в Украине, предпринимательство в Украине, учредить компанию, налоговое законодательство, правила регистрации, документы для бизнеса</t>
   </si>
   <si>
+    <t>friend007.com</t>
+  </si>
+  <si>
+    <t>https://www.friend007.com/LuckyLady</t>
+  </si>
+  <si>
+    <t>таможенный Брокер в Киеве</t>
+  </si>
+  <si>
+    <t>lady.pogovorim.su</t>
+  </si>
+  <si>
+    <t>https://lady.pogovorim.su/viewtopic.php?id=5451</t>
+  </si>
+  <si>
+    <t>замовити мультимодальні перевезення</t>
+  </si>
+  <si>
     <t>22.10.2023</t>
   </si>
   <si>
@@ -214,6 +721,30 @@
     <t>Торговый Агент в Украине: Эффективная Поддержка вашего ВЭД Бизнеса</t>
   </si>
   <si>
+    <t>pinterest.com</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/1145321748971647228</t>
+  </si>
+  <si>
+    <t>joindota.com</t>
+  </si>
+  <si>
+    <t>https://www.joindota.com/users/2256015-michaelbrown</t>
+  </si>
+  <si>
+    <t>авто доставка грузов</t>
+  </si>
+  <si>
+    <t>multwinx.rolka.me</t>
+  </si>
+  <si>
+    <t>https://multwinx.rolka.me/viewtopic.php?id=3667</t>
+  </si>
+  <si>
+    <t>customs service rates in Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/foreign_trade_consulting</t>
   </si>
   <si>
@@ -223,6 +754,78 @@
     <t>консалтинг ВЭД, ВЭД услуги, экспортно-импортные консультации, таможенное консультирование, международная торговля, экспортные процедуры, импортные правила, ВЭД эксперт, внешнеэкономическая деятельность</t>
   </si>
   <si>
+    <t>domestika.org</t>
+  </si>
+  <si>
+    <t>https://www.domestika.org/en/logicaltransua</t>
+  </si>
+  <si>
+    <t>autodoctor.od.ua</t>
+  </si>
+  <si>
+    <t>https://autodoctor.od.ua/e107_plugins/forum/forum_viewtopic.php?2815</t>
+  </si>
+  <si>
+    <t>adjantis.com</t>
+  </si>
+  <si>
+    <t>https://adjantis.com/forums.php?m=posts&amp;q=43040</t>
+  </si>
+  <si>
+    <t>https://www.freeboard.com.ua/forum/viewtopic.php?pid=969209</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>https://gorod.kr.ua/forum/showthread.php?p=248677</t>
+  </si>
+  <si>
+    <t>Поиск поставщиков</t>
+  </si>
+  <si>
+    <t>https://www.freeboard.com.ua/forum/viewtopic.php?pid=949510</t>
+  </si>
+  <si>
+    <t>Страхование перевозки</t>
+  </si>
+  <si>
+    <t>afterukraine.pogovorim.su</t>
+  </si>
+  <si>
+    <t>https://afterukraine.pogovorim.su/viewtopic.php?id=261</t>
+  </si>
+  <si>
+    <t>портове експедирування</t>
+  </si>
+  <si>
+    <t>region.mybb.od.ua</t>
+  </si>
+  <si>
+    <t>https://region.mybb.od.ua/viewtopic.php?id=5033</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>gunner.at.ua</t>
+  </si>
+  <si>
+    <t>https://gunner.at.ua/forum/27-60-1</t>
+  </si>
+  <si>
+    <t>таможенно брокерские услуги</t>
+  </si>
+  <si>
+    <t>blblbl.ruhelp.com</t>
+  </si>
+  <si>
+    <t>https://blblbl.ruhelp.com/viewtopic.php?id=4067</t>
+  </si>
+  <si>
+    <t>Відкриття Фірми в Україні</t>
+  </si>
+  <si>
     <t>21.10.2023</t>
   </si>
   <si>
@@ -235,6 +838,33 @@
     <t>мультимодальная логистика, комбинированные перевозки, перевозка грузов через разные виды транспорта, глобальные мультимодальные решения, оптимизация грузоперевозок, мультимодальные перевозки в Европе, мультимодальные грузоперевозки, мультимодальные перевозки внутри страны, мультимодальная доставка, мультимодальный транспорт</t>
   </si>
   <si>
+    <t>gab.com</t>
+  </si>
+  <si>
+    <t>https://gab.com/Laurared23/posts/111421936643207480</t>
+  </si>
+  <si>
+    <t>penzu.com</t>
+  </si>
+  <si>
+    <t>https://penzu.com/p/b1274bd43dcb17b3</t>
+  </si>
+  <si>
+    <t>quora.com</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/How-can-the-capacity-of-the-port-in-Klaip%C4%97da-be-increased-to-facilitate-the-export-of-Ukrainian-grain/answer/Tarra-Waite?prompt_topic_bio=1</t>
+  </si>
+  <si>
+    <t>forum.osvita.od.ua</t>
+  </si>
+  <si>
+    <t>http://forum.osvita.od.ua/viewtopic.php?f=1&amp;t=4969&amp;p=89732</t>
+  </si>
+  <si>
+    <t>Container freight tariffs</t>
+  </si>
+  <si>
     <t>19.10.2023</t>
   </si>
   <si>
@@ -247,6 +877,12 @@
     <t>стоимость грузоперевозки авиатранспортом, тарифы на авиаперевозки, цены на авиадоставку, расходы на авиаперевозку, стоимость авиатранспортировки, бюджет для авиаперевозки, экономия на авиадоставке, стоимость авиаперевозки грузов</t>
   </si>
   <si>
+    <t>diigo.com</t>
+  </si>
+  <si>
+    <t>https://www.diigo.com/item/note/a06d1/yj46?k=78f5b0171ae10c87c40407f39347113c</t>
+  </si>
+  <si>
     <t>15.10.2023</t>
   </si>
   <si>
@@ -259,6 +895,54 @@
     <t>международная доставка из Европы, логистика грузов из Европы, импорт из Европы, экспорт в Европу, грузоперевозки в Европу, транспортировка товаров из Европы, европейские поставки, перевозка грузов через Европу</t>
   </si>
   <si>
+    <t>https://telegra.ph/Dostavka-gruzov-iz-Evropy-06-27</t>
+  </si>
+  <si>
+    <t>new-journals.at.ua</t>
+  </si>
+  <si>
+    <t>https://new-journals.at.ua/forum/26-10778-1</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>wikidot.com</t>
+  </si>
+  <si>
+    <t>https://www.wikidot.com/user:info/t-h-logistics</t>
+  </si>
+  <si>
+    <t>Стоимость таможенного оформления</t>
+  </si>
+  <si>
+    <t>mobgyry.forum.cool</t>
+  </si>
+  <si>
+    <t>https://mobgyry.forum.cool/viewtopic.php?id=63</t>
+  </si>
+  <si>
+    <t>Регистрация на таможне</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>fishing.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://fishing.ukrbb.net/viewtopic.php?f=21&amp;t=11608&amp;p=31029</t>
+  </si>
+  <si>
+    <t>Консультации по доставке грузов</t>
+  </si>
+  <si>
+    <t>https://magiclife.ukraine7.com/t2049-topic</t>
+  </si>
+  <si>
+    <t>Сертифікат походження</t>
+  </si>
+  <si>
     <t>13.10.2023</t>
   </si>
   <si>
@@ -271,6 +955,45 @@
     <t>морское экспедирование, портовые услуги, экспедирование грузов в порту, портовая логистика, обработка грузов в порту, морские терминалы, портовая инфраструктура, грузы в порту, морские перевозки</t>
   </si>
   <si>
+    <t>https://band.us/band/93001560</t>
+  </si>
+  <si>
+    <t>https://www.behance.net/gallery/184705631/posovetujte-kompaniju-po-gruzoperevozkam</t>
+  </si>
+  <si>
+    <t>intensedebate.com</t>
+  </si>
+  <si>
+    <t>https://www.intensedebate.com/people/companyinua</t>
+  </si>
+  <si>
+    <t>realtycomfort.kiev.ua</t>
+  </si>
+  <si>
+    <t>https://realtycomfort.kiev.ua/forum/discussion/160129/portovoe-ekspedirovanie-optimizaciya-i-bezopasnost-v-gruzovoy-logistike</t>
+  </si>
+  <si>
+    <t>стоимость доставки контейнеров</t>
+  </si>
+  <si>
+    <t>bobr.forum.cool</t>
+  </si>
+  <si>
+    <t>https://bobr.forum.cool/viewtopic.php?id=2802</t>
+  </si>
+  <si>
+    <t>розцінки митного брокера</t>
+  </si>
+  <si>
+    <t>ekonomimvmeste.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://ekonomimvmeste.ukrbb.net/viewtopic.php?f=14&amp;t=20820&amp;p=35348</t>
+  </si>
+  <si>
+    <t>документи експорт</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/customs_brokerage_services_cost</t>
   </si>
   <si>
@@ -280,6 +1003,57 @@
     <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
   </si>
   <si>
+    <t>acuna.infoisinfo.com.mx</t>
+  </si>
+  <si>
+    <t>https://acuna.infoisinfo.com.mx/ficha/stoimost_uslug_tamozhennogo_brokera/3088461</t>
+  </si>
+  <si>
+    <t>1abakan.ru</t>
+  </si>
+  <si>
+    <t>https://1abakan.ru/forum/showthread-144258/</t>
+  </si>
+  <si>
+    <t>Портовое Экспедирование в Одессе</t>
+  </si>
+  <si>
+    <t>donbassforum.net</t>
+  </si>
+  <si>
+    <t>https://donbassforum.net/flud/topic-t3084089.html</t>
+  </si>
+  <si>
+    <t>найти портовое экспедирование</t>
+  </si>
+  <si>
+    <t>maxima.2ua.in.ua</t>
+  </si>
+  <si>
+    <t>http://maxima.2ua.in.ua/viewtopic.php?f=3&amp;t=829&amp;p=13008</t>
+  </si>
+  <si>
+    <t>Container freight</t>
+  </si>
+  <si>
+    <t>sofievka.forum.cool</t>
+  </si>
+  <si>
+    <t>https://sofievka.forum.cool/viewtopic.php?id=5352</t>
+  </si>
+  <si>
+    <t>Таможенное оформление</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>bittogether.com</t>
+  </si>
+  <si>
+    <t>https://bittogether.com/index.php?topic=12982.0</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/customs_broker</t>
   </si>
   <si>
@@ -289,6 +1063,36 @@
     <t>таможенный брокер, услуги таможенного брокера, таможенное оформление, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, таможенные услуги, международная торговля, импорт и экспорт, таможенное декларирование, брокерские услуги</t>
   </si>
   <si>
+    <t>qww.com.ua</t>
+  </si>
+  <si>
+    <t>http://www.qww.com.ua/308764/xn----8sbggd1a1cfhc.xn--j1amh/xn----8sbggd1a1cfhc.html?saved=1</t>
+  </si>
+  <si>
+    <t>Поиск поставщиков в Китае</t>
+  </si>
+  <si>
+    <t>raznoe.forum.cool</t>
+  </si>
+  <si>
+    <t>https://raznoe.forum.cool/viewtopic.php?id=447</t>
+  </si>
+  <si>
+    <t>air freight rates Ukraine</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>boryslav.do.am</t>
+  </si>
+  <si>
+    <t>https://boryslav.do.am/forum/33-13952-1</t>
+  </si>
+  <si>
+    <t>расценки на перевозку морским контейнером</t>
+  </si>
+  <si>
     <t>12.10.2023</t>
   </si>
   <si>
@@ -328,6 +1132,15 @@
     <t>условия использования, условия обслуживания, политика использования, соглашение о пользовании, правила пользования, соглашение об услугах, правила пользования сайтом, пользовательское соглашение, условия обеспечения безопасности, правила безопасности, условия доставки, соглашение о растаможке, правила обработки данных</t>
   </si>
   <si>
+    <t>house18.info</t>
+  </si>
+  <si>
+    <t>https://house18.info/forum/topic/usloviya-ispolzovaniya</t>
+  </si>
+  <si>
+    <t>Customs clearance of goods</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/privacy_policy</t>
   </si>
   <si>
@@ -337,6 +1150,15 @@
     <t>Конфиденциальность данных, защита личных данных, обработка персональных данных, политика конфиденциальности сайта, согласие на обработку данных, правила конфиденциальности, GDPR, защита конфиденциальности, информационная безопасность, обеспечение конфиденциальности, политика конфиденциальности клиентов</t>
   </si>
   <si>
+    <t>forum.anime.org.ua</t>
+  </si>
+  <si>
+    <t>http://forum.anime.org.ua/bbs/showthread.php?p=130922</t>
+  </si>
+  <si>
+    <t>заказать мультимодальную доставку</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/about_us</t>
   </si>
   <si>
@@ -346,58 +1168,13 @@
     <t>О нас</t>
   </si>
   <si>
-    <t>03.07.2024</t>
-  </si>
-  <si>
-    <t>Faicebook</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3.com</t>
-  </si>
-  <si>
-    <t>3.com/3</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>02.11.2024</t>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>2.com</t>
-  </si>
-  <si>
-    <t>2.com/2</t>
-  </si>
-  <si>
-    <t>22222</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>01.11.2024</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.com</t>
-  </si>
-  <si>
-    <t>1.com/1</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>shgs.ru</t>
+  </si>
+  <si>
+    <t>https://shgs.ru/forum/viewtopic.php?p=1561685</t>
+  </si>
+  <si>
+    <t>Доставка Грузов из Европы</t>
   </si>
   <si>
     <t>https://t-h-logistics.com/customs_clearance</t>
@@ -406,6 +1183,84 @@
     <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
   </si>
   <si>
+    <t>buymeacoffee.com</t>
+  </si>
+  <si>
+    <t>https://www.buymeacoffee.com/ducatti/sejetejale</t>
+  </si>
+  <si>
+    <t>merchantcircle.com</t>
+  </si>
+  <si>
+    <t>https://www.merchantcircle.com/blogs/emilybacker-canadian-tx/2024/10/-/2837531</t>
+  </si>
+  <si>
+    <t>banknews.com.ua</t>
+  </si>
+  <si>
+    <t>http://banknews.com.ua/forum?mingleforumaction=viewtopic&amp;t=5582.0</t>
+  </si>
+  <si>
+    <t>forum.sportmashina.com</t>
+  </si>
+  <si>
+    <t>https://forum.sportmashina.com/index.php?threads/tonkosti-tamozhennogo-oformlenija.6087/</t>
+  </si>
+  <si>
+    <t>molbiol.ru</t>
+  </si>
+  <si>
+    <t>http://molbiol.ru/forums/index.php?showtopic=1149969</t>
+  </si>
+  <si>
+    <t>Вартість Послуг Митного Брокера</t>
+  </si>
+  <si>
+    <t>autoriginal.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.autoriginal.com.ua/forum/tryop/3998-trans-hope-vash-nadezhnyi-pomoschnik-v-tamozhennom-oformlenii.html#post10967</t>
+  </si>
+  <si>
+    <t>таможенное оформление</t>
+  </si>
+  <si>
+    <t>planeta.mybb.social</t>
+  </si>
+  <si>
+    <t>http://planeta.mybb.social/viewtopic.php?id=750</t>
+  </si>
+  <si>
+    <t>Intermodal transportation</t>
+  </si>
+  <si>
+    <t>dexanet.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://dexanet.ukrbb.net/viewtopic.php?f=5&amp;t=9166&amp;p=25318</t>
+  </si>
+  <si>
+    <t>документи при імпорті товарів</t>
+  </si>
+  <si>
+    <t>krambride.at.ua</t>
+  </si>
+  <si>
+    <t>https://krambride.at.ua/forum/7-1363-1</t>
+  </si>
+  <si>
+    <t>Контейнерные перевозки</t>
+  </si>
+  <si>
+    <t>seaman.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.seaman.com.ua/forum/index.php?threads/tamozhennyj-broker.25508/</t>
+  </si>
+  <si>
+    <t>вартість перевезення морем</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/container_delivery</t>
   </si>
   <si>
@@ -415,6 +1270,81 @@
     <t>морские контейнерные перевозки, морские перевозки, морская логистика, контейнерные перевозки, грузоперевозки по морю, международные морские перевозки, контейнерные морские перевозки, морской транспорт, грузоперевозки контейнерами, морская экспедиция, морские линии, морские перевозки товаров, морская доставка, морские грузовые перевозки, контейнерная логистика, морская транспортировка, морские грузовые услуги.</t>
   </si>
   <si>
+    <t>groups.google.com</t>
+  </si>
+  <si>
+    <t>https://groups.google.com/g/carriercompany/c/Alc8E7S1dHc</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/896286763328568278</t>
+  </si>
+  <si>
+    <t>medium.com</t>
+  </si>
+  <si>
+    <t>https://medium.com/@ingafrollova/%D0%BC%D0%BE%D1%80%D1%81%D0%BA%D0%B8%D0%B5-%D0%BA%D0%BE%D0%BD%D1%82%D0%B5%D0%B9%D0%BD%D0%B5%D1%80%D0%BD%D1%8B%D0%B5-%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8-%D0%BD%D0%B0%D0%B4%D0%B5%D0%B6%D0%BD%D0%BE%D1%81%D1%82%D1%8C-%D0%B8-%D1%8D%D0%BA%D0%BE%D0%BD%D0%BE%D0%BC%D0%B8%D1%8F-1e2eefecc97a</t>
+  </si>
+  <si>
+    <t>zolochiv.catsboard.com</t>
+  </si>
+  <si>
+    <t>https://zolochiv.catsboard.com/t1565-topic</t>
+  </si>
+  <si>
+    <t>service-core.com.ua</t>
+  </si>
+  <si>
+    <t>https://service-core.com.ua/forum/topic2749-tonkosti-morskikh-perevozok.html</t>
+  </si>
+  <si>
+    <t>ukrom.in.ua</t>
+  </si>
+  <si>
+    <t>https://ukrom.in.ua/blogs/102871-morskie-konteinernye-perevozki.html</t>
+  </si>
+  <si>
+    <t>minds.com</t>
+  </si>
+  <si>
+    <t>https://www.minds.com/group/1572795220335005703/latest</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>rollbol.com</t>
+  </si>
+  <si>
+    <t>https://rollbol.com/blogs/1788186/%D0%9A%D0%BE%D0%BD%D1%82%D0%B5%D0%B9%D0%BD%D0%B5%D1%80%D0%BD%D1%8B%D0%B5-%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8-%D0%AD%D1%84%D1%84%D0%B5%D0%BA%D1%82%D0%B8%D0%B2%D0%BD%D0%BE%D1%81%D1%82%D1%8C-%D0%A3%D1%81%D1%82%D0%BE%D0%B9%D1%87%D0%B8%D0%B2%D0%BE%D1%81%D1%82%D1%8C-%D0%B8-%D0%91%D1%83%D0%B4%D1%83%D1%89%D0%B5%D0%B5-%D0%93%D0%BB%D0%BE%D0%B1%D0%B0%D0%BB%D1%8C%D0%BD%D0%BE%D0%B9-%D0%9B%D0%BE%D0%B3%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B8</t>
+  </si>
+  <si>
+    <t>Користь авіаперевезень</t>
+  </si>
+  <si>
+    <t>sportpro.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.sportpro.com.ua/forum/viewtopic.php?p=207610#207610</t>
+  </si>
+  <si>
+    <t>ukraineforum.com.ua</t>
+  </si>
+  <si>
+    <t>https://ukraineforum.com.ua/index.php?threads/%D0%9C%D0%BE%D1%80%D1%81%D0%BA%D0%B8%D0%B5-%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8.11707/</t>
+  </si>
+  <si>
+    <t>таможенный брокер Киев</t>
+  </si>
+  <si>
+    <t>girlforum.forum.cool</t>
+  </si>
+  <si>
+    <t>http://girlforum.forum.cool/viewtopic.php?id=1521</t>
+  </si>
+  <si>
+    <t>Послуга імпортера</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/truck_delivery</t>
   </si>
   <si>
@@ -424,6 +1354,45 @@
     <t>Автомобильные грузоперевозки, Грузовые перевозки по дороге, Логистика автоперевозок, Грузовики для перевозки грузов, Автотранспортные услуги, Доставка грузов автомобилем, Автодоставка грузов,Транспортировка товаров автотранспортом, Доставка грузов по стране, Дорожные перевозки, Автомобильные логистические услуги, Перевозка товаров по дороге, Грузоперевозки на автомобилях, Автофургоны для перевозки грузов, Профессиональные авто перевозки,</t>
   </si>
   <si>
+    <t>https://ukraineforum.com.ua/index.php?threads/%D0%90%D0%B2%D1%82%D0%BE-%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8.24186/</t>
+  </si>
+  <si>
+    <t>mydnepr.pp.ua</t>
+  </si>
+  <si>
+    <t>https://mydnepr.pp.ua/forum/topic.php?forum=11&amp;topic=2989</t>
+  </si>
+  <si>
+    <t>Авіа перевезення</t>
+  </si>
+  <si>
+    <t>forum.familyclub.in.ua</t>
+  </si>
+  <si>
+    <t>http://forum.familyclub.in.ua/showthread.php?t=20047</t>
+  </si>
+  <si>
+    <t>Starting a Legal Entity in Ukraine</t>
+  </si>
+  <si>
+    <t>fruitcocktail.forum.cool</t>
+  </si>
+  <si>
+    <t>https://fruitcocktail.forum.cool/viewtopic.php?id=386</t>
+  </si>
+  <si>
+    <t>Зовнішньоекономічний Договір зразок</t>
+  </si>
+  <si>
+    <t>megaforums.ruhelp.com</t>
+  </si>
+  <si>
+    <t>https://megaforums.ruhelp.com/viewtopic.php?id=3706</t>
+  </si>
+  <si>
+    <t>митне оформлення</t>
+  </si>
+  <si>
     <t>04.09.2023</t>
   </si>
   <si>
@@ -434,6 +1403,78 @@
   </si>
   <si>
     <t>Авиа перевозки, Грузовые авиаперевозки, Международные авиа перевозки, Перевозка грузов по воздуху, Логистика авиаперевозок, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
+  </si>
+  <si>
+    <t>rohitab.com</t>
+  </si>
+  <si>
+    <t>http://www.rohitab.com/discuss/user/2376000-mariawebster/</t>
+  </si>
+  <si>
+    <t>forum.ua-vet.com</t>
+  </si>
+  <si>
+    <t>http://forum.ua-vet.com/viewtopic.php?f=13&amp;t=66402</t>
+  </si>
+  <si>
+    <t>sovet.kidstaff.com.ua</t>
+  </si>
+  <si>
+    <t>https://sovet.kidstaff.com.ua/question-3555773</t>
+  </si>
+  <si>
+    <t>provenexpert.com</t>
+  </si>
+  <si>
+    <t>http://msnho.com/blog/%D0%B0%D0%B2%D0%B8%D0%B0%D0%B4%D0%BE%D1%81%D1%82%D0%B0%D0%B2%D0%BA%D0%B0-%D0%B3%D1%80%D1%83%D0%B7%D0%BE%D0%B2-%D1%8D%D1%84%D1%84%D0%B5%D0%BA%D1%82%D0%B8%D0%B2%D0%BD%D0%BE%D1%81%D1%82%D1%8C-%D1%81%D0%BA%D0%BE%D1%80%D0%BE%D1%81%D1%82%D1%8C-%D0%B8-%D0%B3%D0%BB%D0%BE%D0%B1%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F-%D1%81%D0%B2%D1%8F%D0%B7%D0%BD%D0%BE%D1%81%D1%82%D1%8C</t>
+  </si>
+  <si>
+    <t>open a business in Ukraine</t>
+  </si>
+  <si>
+    <t>oldforum.citysakh.ru</t>
+  </si>
+  <si>
+    <t>https://oldforum.citysakh.ru/?talkid=26377</t>
+  </si>
+  <si>
+    <t>Авіа перевезення вантажів</t>
+  </si>
+  <si>
+    <t>forum.flagman.kiev.ua</t>
+  </si>
+  <si>
+    <t>https://forum.flagman.kiev.ua/threads/bystraja-nadezhnaja-i-ehffektivnaja-avia-dostavka-gruzov-s-trans-hope.7941/</t>
+  </si>
+  <si>
+    <t>Авто перевезення</t>
+  </si>
+  <si>
+    <t>warss.ruhelp.com</t>
+  </si>
+  <si>
+    <t>https://warss.ruhelp.com/viewtopic.php?id=3112</t>
+  </si>
+  <si>
+    <t>ціни на морські перевезення</t>
+  </si>
+  <si>
+    <t>doa.at.ua</t>
+  </si>
+  <si>
+    <t>https://doa.at.ua/forum/16-10846-1</t>
+  </si>
+  <si>
+    <t>Сертифікат походження EUR1</t>
+  </si>
+  <si>
+    <t>elfae.ruhelp.com</t>
+  </si>
+  <si>
+    <t>https://elfae.ruhelp.com/viewtopic.php?id=9393</t>
+  </si>
+  <si>
+    <t>OpenBank Account in Ukraine</t>
   </si>
   <si>
     <t>Page Seo</t>
@@ -503,6 +1544,18 @@
 таможенные формальности, таможенная проверка, импортный контроль, экспортный контроль, таможенные процедуры, таможенные правила, таможенное законодательство, таможенный режим, регулирование таможенной деятельности</t>
   </si>
   <si>
+    <t>app.roll20.net</t>
+  </si>
+  <si>
+    <t>https://app.roll20.net/users/14974599/natalia-n</t>
+  </si>
+  <si>
+    <t>forum.javabox.net</t>
+  </si>
+  <si>
+    <t>https://forum.javabox.net/viewtopic.php?f=20&amp;t=371092</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
@@ -512,6 +1565,18 @@
     <t>таможенные режимы, Украина, таможенное оформление, временный ввоз, экспорт, импорт, таможенное законодательство, таможенные процедуры, таможенные правила</t>
   </si>
   <si>
+    <t>http://forum.osvita.od.ua/viewtopic.php?f=1&amp;t=20448&amp;p=97469</t>
+  </si>
+  <si>
+    <t>kotelva.forum2x2.com</t>
+  </si>
+  <si>
+    <t>https://kotelva.forum2x2.com/t8141-topic</t>
+  </si>
+  <si>
+    <t>ліцензії на здійснення митно-брокерської діяльності</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_useful</t>
   </si>
   <si>
@@ -521,6 +1586,21 @@
     <t>Таможня полезное</t>
   </si>
   <si>
+    <t>rolandus.org</t>
+  </si>
+  <si>
+    <t>https://www.rolandus.org/forum/viewtopic.php?p=102960</t>
+  </si>
+  <si>
+    <t>medvin.ucoz.ua</t>
+  </si>
+  <si>
+    <t>https://medvin.ucoz.ua/forum/2-2403-1</t>
+  </si>
+  <si>
+    <t>морские контейнерные перевозки</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/certificate_of_origin_base</t>
   </si>
   <si>
@@ -530,6 +1610,21 @@
     <t>сертификат, происхождение товаров, международная торговля, документация, экспорт, признание, тарифные преференции, торговые соглашения, экспортер, таможня</t>
   </si>
   <si>
+    <t>bike.by</t>
+  </si>
+  <si>
+    <t>http://bike.by/forum/viewtopic.php?f=84&amp;t=30970</t>
+  </si>
+  <si>
+    <t>professional HR Solutions in Ukraine</t>
+  </si>
+  <si>
+    <t>vevioz.com</t>
+  </si>
+  <si>
+    <t>https://www.vevioz.com/315603f10</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
@@ -539,6 +1634,24 @@
     <t>сертификат происхождения, EUR.1, международные торговые соглашения, преференциальное происхождение, таможенные пошлины, торговые льготы, экспортные документы, таможенные процедуры, торговля международными партнерами, таможенное оформление</t>
   </si>
   <si>
+    <t>alhambra.bestforums.org</t>
+  </si>
+  <si>
+    <t>http://alhambra.bestforums.org/viewtopic.php?f=2&amp;t=34365&amp;p=43005</t>
+  </si>
+  <si>
+    <t>авто перевозки</t>
+  </si>
+  <si>
+    <t>ko-fi.com</t>
+  </si>
+  <si>
+    <t>https://ko-fi.com/thlogistics</t>
+  </si>
+  <si>
+    <t>Taxation in Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
@@ -548,6 +1661,21 @@
     <t>договор купли-продажи, разделы, условия поставки, цена товара, платежи, риски, выполнение контракта, защита интересов</t>
   </si>
   <si>
+    <t>exchangle.com</t>
+  </si>
+  <si>
+    <t>https://www.exchangle.com/Logisticcomua</t>
+  </si>
+  <si>
+    <t>forum.startandroid.ru</t>
+  </si>
+  <si>
+    <t>http://forum.startandroid.ru/viewtopic.php?f=51&amp;t=191505</t>
+  </si>
+  <si>
+    <t>експедитор України</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
@@ -557,6 +1685,18 @@
     <t>таможенная декларация, таможенные формальности, импорт, экспорт, таможенный контроль, таможенное оформление, таможенные процедуры, документы, таможенные правила</t>
   </si>
   <si>
+    <t>ekonomimvmeste.ukrbb.net/</t>
+  </si>
+  <si>
+    <t>http://ekonomimvmeste.ukrbb.net/viewtopic.php?f=14&amp;t=24823</t>
+  </si>
+  <si>
+    <t>bestshopp.ukraine7.com</t>
+  </si>
+  <si>
+    <t>https://bestshopp.ukraine7.com/t980-topic</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_clearance_package_export</t>
   </si>
   <si>
@@ -566,6 +1706,36 @@
     <t>экспортная документация, формализация экспорта, документы для ввоза и вывоза, таможенная документация, экспортные процедуры, экспортные формы, международная торговая документация, бумаги для глобальной торговли, экспортные лицензии, транспортные документы для экспорта, документы для международных перевозок, внешнеторговая документация, таможенные формы для экспорта.</t>
   </si>
   <si>
+    <t>justforum.bestforums.org</t>
+  </si>
+  <si>
+    <t>http://justforum.bestforums.org/viewtopic.php?f=29&amp;t=2845&amp;p=3636</t>
+  </si>
+  <si>
+    <t>gaiaonline.com</t>
+  </si>
+  <si>
+    <t>https://www.gaiaonline.com/profiles/thiagofernande/46574955/</t>
+  </si>
+  <si>
+    <t>ukraine.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://ukraine.ukrbb.net/viewtopic.php?f=11&amp;t=23058</t>
+  </si>
+  <si>
+    <t>найти морские контейнерные перевозки</t>
+  </si>
+  <si>
+    <t>hub.docker.com</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/u/thlogistics</t>
+  </si>
+  <si>
+    <t>Rent legal address in Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_clearance_package_import</t>
   </si>
   <si>
@@ -575,6 +1745,27 @@
     <t>импортная документация, документы для ввоза товаров, таможенная документация, импортные процедуры, импортные формы, международная торговая документация, импортные лицензии, транспортные документы для импорта, документы для международных перевозок, внешнеторговая документация</t>
   </si>
   <si>
+    <t>devfolio.co</t>
+  </si>
+  <si>
+    <t>https://devfolio.co/@EvaMuzuka</t>
+  </si>
+  <si>
+    <t>vipautokiev.com</t>
+  </si>
+  <si>
+    <t>http://vipautokiev.com/forum/viewthread.php?forum_id=13&amp;thread_id=312</t>
+  </si>
+  <si>
+    <t>renderosity.com</t>
+  </si>
+  <si>
+    <t>https://www.renderosity.com/users/thlogistics</t>
+  </si>
+  <si>
+    <t>авиа доставка</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_clearance_package_cost</t>
   </si>
   <si>
@@ -584,6 +1775,21 @@
     <t>формальности ценообразования на границе, таможенные сертификаты стоимости товаров, документы для международного таможенного оформления, утверждение стоимости при ввозе, таможенные процедуры и стоимость, инвойс и упаковочные листы для таможни, сертификаты происхождения для таможенни</t>
   </si>
   <si>
+    <t>bakespace.com</t>
+  </si>
+  <si>
+    <t>https://www.bakespace.com/cookbooks/detail/%D0%9D%D0%BE%D0%B2%D1%8B%D0%B5-%D1%80%D0%B5%D1%86%D0%B5%D0%BF%D1%82%D1%8B/6122/</t>
+  </si>
+  <si>
+    <t>мультимодальные перевозки грузов</t>
+  </si>
+  <si>
+    <t>vhearts.net</t>
+  </si>
+  <si>
+    <t>https://vhearts.net/MarianaLima</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_broker_license</t>
   </si>
   <si>
@@ -593,6 +1799,21 @@
     <t>лицензия, таможенный брокер, получение, условия, регулирование, законодательство, таможенные процедуры, бизнес, экспорт, импорт</t>
   </si>
   <si>
+    <t>vdoske.in.ua</t>
+  </si>
+  <si>
+    <t>https://vdoske.in.ua/forum-tovary-produkty-v-ukraine/forum-4322-licenziya-tamozhennogo-brokera</t>
+  </si>
+  <si>
+    <t>Растаможка грузов</t>
+  </si>
+  <si>
+    <t>http://forum.anime.org.ua/bbs/showthread.php?p=134255</t>
+  </si>
+  <si>
+    <t>air transportation to Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
@@ -602,6 +1823,30 @@
     <t>международные договоры, торговые контракты, экспортно-импортные соглашения, мировая торговля, международная коммерция</t>
   </si>
   <si>
+    <t>exchange.prx.org</t>
+  </si>
+  <si>
+    <t>https://exchange.prx.org/series/49549-?</t>
+  </si>
+  <si>
+    <t>odessaforum.getbb.ru</t>
+  </si>
+  <si>
+    <t>https://odessaforum.getbb.ru/viewtopic.php?f=5&amp;t=20174</t>
+  </si>
+  <si>
+    <t>таможня аккредитация фирмы</t>
+  </si>
+  <si>
+    <t>katuganka.in.ua</t>
+  </si>
+  <si>
+    <t>http://katuganka.in.ua/forum/index.php?id=1282709</t>
+  </si>
+  <si>
+    <t>Доставка контейнера из Китая</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/info/customs_accreditation</t>
   </si>
   <si>
@@ -611,6 +1856,27 @@
     <t>аккредитация таможня, онлайн аккредитация, процедура аккредитации, таможенные процедуры, документы для таможни, таможенные услуги</t>
   </si>
   <si>
+    <t>cleansway.com</t>
+  </si>
+  <si>
+    <t>https://www.cleansway.com/kyiv/logisticsuaservices</t>
+  </si>
+  <si>
+    <t>http://alhambra.bestforums.org/viewtopic.php?f=2&amp;t=36658</t>
+  </si>
+  <si>
+    <t>Customs broker</t>
+  </si>
+  <si>
+    <t>https://rollbol.com/DanielThompson</t>
+  </si>
+  <si>
+    <t>консолидация грузов</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
     <t>03.11.2024</t>
   </si>
   <si>
@@ -668,6 +1934,12 @@
     <t>таможенный код товара, код ТН ВЭД, классификация товаров, товарная номенклатура, код экспортного товара, импортный код, гармонизированная система, HS код, таможенная очистка, кодирование товаров, таможенные тарифы, классификатор товаров, товарная группа, декларирование товара, таможенная декларация</t>
   </si>
   <si>
+    <t>otzyvua.net</t>
+  </si>
+  <si>
+    <t>https://www.otzyvua.net/ediniy-servis-ukraina/faq/pravilniy-podbor-tamojennogo-koda-41144</t>
+  </si>
+  <si>
     <t>03.06.2024</t>
   </si>
   <si>
@@ -680,6 +1952,18 @@
     <t>способы доставки контейнеров, виды транспортировки контейнеров, логистика контейнерных перевозок, методы перевозки контейнеров, транспортировка грузов в контейнерах, контейнерные перевозки, варианты транспортировки контейнеров, эффективные способы доставки контейнеров</t>
   </si>
   <si>
+    <t>skillshare.com</t>
+  </si>
+  <si>
+    <t>https://www.skillshare.com/en/profile/Hurmanggbf-Saewa/961361931</t>
+  </si>
+  <si>
+    <t>odessamama.net</t>
+  </si>
+  <si>
+    <t>https://odessamama.net/forum.php?mod=viewthread&amp;tid=291011&amp;pid=361059&amp;page=1&amp;extra=</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
   </si>
   <si>
@@ -701,18 +1985,33 @@
     <t>запрос поставщику, письмо продавцу, китайские поставщики, закупка в китае</t>
   </si>
   <si>
+    <t>footwear.ua</t>
+  </si>
+  <si>
+    <t>http://footwear.ua/forum/index.php?act=morelist&amp;id_parent=82742&amp;id_group=5&amp;offset_detail=0</t>
+  </si>
+  <si>
     <t>22.04.2024</t>
   </si>
   <si>
     <t>https://t-h-logistics.com/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
-    <t>Поиск поставщиков в Китае</t>
-  </si>
-  <si>
     <t>поиск поставщиков, alibaba.com, поставка товаров из китая, товары</t>
   </si>
   <si>
+    <t>archive.org</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/@hanna_montana296</t>
+  </si>
+  <si>
+    <t>odesit.com</t>
+  </si>
+  <si>
+    <t>http://odesit.com/fm-t-20089-last.php</t>
+  </si>
+  <si>
     <t>News</t>
   </si>
   <si>
@@ -792,36 +2091,6 @@
   </si>
   <si>
     <t>Одесса, порты, экспорт, агропродукция, зерно, Украина, продовольствие</t>
-  </si>
-  <si>
-    <t>25/09/2024</t>
-  </si>
-  <si>
-    <t>Forum</t>
-  </si>
-  <si>
-    <t>https://news.com.ua/</t>
-  </si>
-  <si>
-    <t>https://news.com.ua/post1.html</t>
-  </si>
-  <si>
-    <t>таможенне оформления 1</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>superblogs.com.ua</t>
-  </si>
-  <si>
-    <t>https:/superblogs.com.ua/post1.html</t>
-  </si>
-  <si>
-    <t>таможенне оформления 2</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K214"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -1285,1043 +2554,1043 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="I14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="I16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="J16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="I19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="I21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="J21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="I22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="I23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
+      <c r="J24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s">
+      <c r="J25" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="J26" t="s">
         <v>90</v>
       </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
-      </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
+      <c r="J27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" t="s">
-        <v>12</v>
-      </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
-      </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>12</v>
-      </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="J30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>12</v>
-      </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2338,25 +3607,25 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2373,165 +3642,165 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2548,30 +3817,30 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -2583,200 +3852,200 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2793,30 +4062,30 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -2828,284 +4097,284 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" t="s">
         <v>159</v>
       </c>
-      <c r="B48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" t="s">
-        <v>12</v>
-      </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3131,16 +4400,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3166,16 +4435,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3201,16 +4470,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3236,16 +4505,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3271,16 +4540,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3306,16 +4575,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3341,16 +4610,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3379,13 +4648,13 @@
         <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3411,16 +4680,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3446,16 +4715,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3481,16 +4750,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3516,7 +4785,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
         <v>215</v>
@@ -3528,39 +4797,39 @@
         <v>217</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3586,107 +4855,107 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="J69" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="K70" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3703,30 +4972,30 @@
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -3738,293 +5007,293 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="K73" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="J77" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="J78" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="J79" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="K79" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="J80" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="F81" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
         <v>262</v>
@@ -4033,10 +5302,10 @@
         <v>263</v>
       </c>
       <c r="J81" t="s">
-        <v>264</v>
-      </c>
-      <c r="K81">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="K81" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4053,25 +5322,25 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
+        <v>264</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s">
         <v>265</v>
       </c>
-      <c r="F82" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>266</v>
       </c>
-      <c r="H82" t="s">
+      <c r="J82" t="s">
         <v>267</v>
       </c>
-      <c r="I82" t="s">
-        <v>268</v>
-      </c>
-      <c r="J82" t="s">
-        <v>269</v>
-      </c>
-      <c r="K82">
-        <v>11</v>
+      <c r="K82" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4088,24 +5357,4609 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="J83" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="K83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>275</v>
+      </c>
+      <c r="I84" t="s">
+        <v>276</v>
+      </c>
+      <c r="J84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" t="s">
+        <v>277</v>
+      </c>
+      <c r="I85" t="s">
+        <v>278</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" t="s">
+        <v>279</v>
+      </c>
+      <c r="I86" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s">
+        <v>281</v>
+      </c>
+      <c r="I87" t="s">
+        <v>282</v>
+      </c>
+      <c r="J87" t="s">
+        <v>283</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>288</v>
+      </c>
+      <c r="I88" t="s">
+        <v>289</v>
+      </c>
+      <c r="J88" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>294</v>
+      </c>
+      <c r="J89" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s">
+        <v>295</v>
+      </c>
+      <c r="I90" t="s">
+        <v>296</v>
+      </c>
+      <c r="J90" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>298</v>
+      </c>
+      <c r="I91" t="s">
+        <v>299</v>
+      </c>
+      <c r="J91" t="s">
+        <v>300</v>
+      </c>
+      <c r="K91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s">
+        <v>301</v>
+      </c>
+      <c r="I92" t="s">
+        <v>302</v>
+      </c>
+      <c r="J92" t="s">
+        <v>303</v>
+      </c>
+      <c r="K92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>304</v>
+      </c>
+      <c r="F93" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>305</v>
+      </c>
+      <c r="I93" t="s">
+        <v>306</v>
+      </c>
+      <c r="J93" t="s">
+        <v>307</v>
+      </c>
+      <c r="K93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>94</v>
+      </c>
+      <c r="I94" t="s">
+        <v>308</v>
+      </c>
+      <c r="J94" t="s">
+        <v>309</v>
+      </c>
+      <c r="K94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" t="s">
+        <v>312</v>
+      </c>
+      <c r="D95" t="s">
+        <v>313</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" t="s">
+        <v>314</v>
+      </c>
+      <c r="J95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" t="s">
+        <v>315</v>
+      </c>
+      <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
+        <v>316</v>
+      </c>
+      <c r="I97" t="s">
+        <v>317</v>
+      </c>
+      <c r="J97" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>318</v>
+      </c>
+      <c r="I98" t="s">
+        <v>319</v>
+      </c>
+      <c r="J98" t="s">
+        <v>320</v>
+      </c>
+      <c r="K98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s">
+        <v>321</v>
+      </c>
+      <c r="I99" t="s">
+        <v>322</v>
+      </c>
+      <c r="J99" t="s">
+        <v>323</v>
+      </c>
+      <c r="K99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>324</v>
+      </c>
+      <c r="I100" t="s">
+        <v>325</v>
+      </c>
+      <c r="J100" t="s">
+        <v>326</v>
+      </c>
+      <c r="K100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" t="s">
+        <v>329</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>330</v>
+      </c>
+      <c r="I101" t="s">
+        <v>331</v>
+      </c>
+      <c r="J101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>332</v>
+      </c>
+      <c r="I102" t="s">
+        <v>333</v>
+      </c>
+      <c r="J102" t="s">
+        <v>334</v>
+      </c>
+      <c r="K102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s">
+        <v>335</v>
+      </c>
+      <c r="I103" t="s">
+        <v>336</v>
+      </c>
+      <c r="J103" t="s">
+        <v>337</v>
+      </c>
+      <c r="K103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>338</v>
+      </c>
+      <c r="I104" t="s">
+        <v>339</v>
+      </c>
+      <c r="J104" t="s">
+        <v>340</v>
+      </c>
+      <c r="K104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>341</v>
+      </c>
+      <c r="I105" t="s">
+        <v>342</v>
+      </c>
+      <c r="J105" t="s">
+        <v>343</v>
+      </c>
+      <c r="K105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>344</v>
+      </c>
+      <c r="F106" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>345</v>
+      </c>
+      <c r="I106" t="s">
+        <v>346</v>
+      </c>
+      <c r="J106" t="s">
+        <v>83</v>
+      </c>
+      <c r="K106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>310</v>
+      </c>
+      <c r="B107" t="s">
+        <v>347</v>
+      </c>
+      <c r="C107" t="s">
+        <v>348</v>
+      </c>
+      <c r="D107" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107" t="s">
+        <v>54</v>
+      </c>
+      <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s">
+        <v>350</v>
+      </c>
+      <c r="I107" t="s">
+        <v>351</v>
+      </c>
+      <c r="J107" t="s">
+        <v>352</v>
+      </c>
+      <c r="K107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>264</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>353</v>
+      </c>
+      <c r="I108" t="s">
+        <v>354</v>
+      </c>
+      <c r="J108" t="s">
+        <v>355</v>
+      </c>
+      <c r="K108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>356</v>
+      </c>
+      <c r="F109" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>357</v>
+      </c>
+      <c r="I109" t="s">
+        <v>358</v>
+      </c>
+      <c r="J109" t="s">
+        <v>359</v>
+      </c>
+      <c r="K109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>360</v>
+      </c>
+      <c r="B110" t="s">
+        <v>361</v>
+      </c>
+      <c r="C110" t="s">
+        <v>362</v>
+      </c>
+      <c r="D110" t="s">
+        <v>363</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>360</v>
+      </c>
+      <c r="B111" t="s">
+        <v>364</v>
+      </c>
+      <c r="C111" t="s">
+        <v>365</v>
+      </c>
+      <c r="D111" t="s">
+        <v>366</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>360</v>
+      </c>
+      <c r="B112" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" t="s">
+        <v>368</v>
+      </c>
+      <c r="D112" t="s">
+        <v>368</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" t="s">
+        <v>12</v>
+      </c>
+      <c r="K112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>369</v>
+      </c>
+      <c r="B113" t="s">
+        <v>370</v>
+      </c>
+      <c r="C113" t="s">
+        <v>371</v>
+      </c>
+      <c r="D113" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>373</v>
+      </c>
+      <c r="I113" t="s">
+        <v>374</v>
+      </c>
+      <c r="J113" t="s">
+        <v>375</v>
+      </c>
+      <c r="K113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>369</v>
+      </c>
+      <c r="B114" t="s">
+        <v>376</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" t="s">
+        <v>378</v>
+      </c>
+      <c r="E114" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" t="s">
+        <v>379</v>
+      </c>
+      <c r="I114" t="s">
+        <v>380</v>
+      </c>
+      <c r="J114" t="s">
+        <v>381</v>
+      </c>
+      <c r="K114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>369</v>
+      </c>
+      <c r="B115" t="s">
+        <v>382</v>
+      </c>
+      <c r="C115" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115" t="s">
+        <v>384</v>
+      </c>
+      <c r="E115" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
+        <v>385</v>
+      </c>
+      <c r="I115" t="s">
+        <v>386</v>
+      </c>
+      <c r="J115" t="s">
+        <v>387</v>
+      </c>
+      <c r="K115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>369</v>
+      </c>
+      <c r="B116" t="s">
+        <v>388</v>
+      </c>
+      <c r="C116" t="s">
+        <v>389</v>
+      </c>
+      <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s">
+        <v>390</v>
+      </c>
+      <c r="I116" t="s">
+        <v>391</v>
+      </c>
+      <c r="J116" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>392</v>
+      </c>
+      <c r="I117" t="s">
+        <v>393</v>
+      </c>
+      <c r="J117" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>394</v>
+      </c>
+      <c r="I118" t="s">
+        <v>395</v>
+      </c>
+      <c r="J118" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="s">
+        <v>396</v>
+      </c>
+      <c r="I119" t="s">
+        <v>397</v>
+      </c>
+      <c r="J119" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>54</v>
+      </c>
+      <c r="F120" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" t="s">
+        <v>398</v>
+      </c>
+      <c r="I120" t="s">
+        <v>399</v>
+      </c>
+      <c r="J120" t="s">
+        <v>400</v>
+      </c>
+      <c r="K120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>84</v>
+      </c>
+      <c r="F121" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>401</v>
+      </c>
+      <c r="I121" t="s">
+        <v>402</v>
+      </c>
+      <c r="J121" t="s">
+        <v>403</v>
+      </c>
+      <c r="K121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>137</v>
+      </c>
+      <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s">
+        <v>404</v>
+      </c>
+      <c r="I122" t="s">
+        <v>405</v>
+      </c>
+      <c r="J122" t="s">
+        <v>406</v>
+      </c>
+      <c r="K122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F123" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s">
+        <v>407</v>
+      </c>
+      <c r="I123" t="s">
+        <v>408</v>
+      </c>
+      <c r="J123" t="s">
+        <v>409</v>
+      </c>
+      <c r="K123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>152</v>
+      </c>
+      <c r="F124" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s">
+        <v>410</v>
+      </c>
+      <c r="I124" t="s">
+        <v>411</v>
+      </c>
+      <c r="J124" t="s">
+        <v>412</v>
+      </c>
+      <c r="K124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>344</v>
+      </c>
+      <c r="F125" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" t="s">
+        <v>49</v>
+      </c>
+      <c r="H125" t="s">
+        <v>413</v>
+      </c>
+      <c r="I125" t="s">
+        <v>414</v>
+      </c>
+      <c r="J125" t="s">
+        <v>415</v>
+      </c>
+      <c r="K125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" t="s">
+        <v>417</v>
+      </c>
+      <c r="D126" t="s">
+        <v>418</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>419</v>
+      </c>
+      <c r="I126" t="s">
+        <v>420</v>
+      </c>
+      <c r="J126" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" t="s">
+        <v>236</v>
+      </c>
+      <c r="I127" t="s">
+        <v>421</v>
+      </c>
+      <c r="J127" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s">
+        <v>49</v>
+      </c>
+      <c r="H128" t="s">
+        <v>422</v>
+      </c>
+      <c r="I128" t="s">
+        <v>423</v>
+      </c>
+      <c r="J128" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s">
+        <v>424</v>
+      </c>
+      <c r="I129" t="s">
+        <v>425</v>
+      </c>
+      <c r="J129" t="s">
+        <v>22</v>
+      </c>
+      <c r="K129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s">
+        <v>426</v>
+      </c>
+      <c r="I130" t="s">
+        <v>427</v>
+      </c>
+      <c r="J130" t="s">
+        <v>22</v>
+      </c>
+      <c r="K130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" t="s">
+        <v>428</v>
+      </c>
+      <c r="I131" t="s">
+        <v>429</v>
+      </c>
+      <c r="J131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>430</v>
+      </c>
+      <c r="I132" t="s">
+        <v>431</v>
+      </c>
+      <c r="J132" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
+        <v>432</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>433</v>
+      </c>
+      <c r="I133" t="s">
+        <v>434</v>
+      </c>
+      <c r="J133" t="s">
+        <v>435</v>
+      </c>
+      <c r="K133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>84</v>
+      </c>
+      <c r="F134" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" t="s">
+        <v>436</v>
+      </c>
+      <c r="I134" t="s">
+        <v>437</v>
+      </c>
+      <c r="J134" t="s">
+        <v>403</v>
+      </c>
+      <c r="K134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>152</v>
+      </c>
+      <c r="F135" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s">
+        <v>49</v>
+      </c>
+      <c r="H135" t="s">
+        <v>438</v>
+      </c>
+      <c r="I135" t="s">
+        <v>439</v>
+      </c>
+      <c r="J135" t="s">
+        <v>440</v>
+      </c>
+      <c r="K135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>156</v>
+      </c>
+      <c r="F136" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s">
+        <v>441</v>
+      </c>
+      <c r="I136" t="s">
+        <v>442</v>
+      </c>
+      <c r="J136" t="s">
+        <v>443</v>
+      </c>
+      <c r="K136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>369</v>
+      </c>
+      <c r="B137" t="s">
+        <v>444</v>
+      </c>
+      <c r="C137" t="s">
+        <v>445</v>
+      </c>
+      <c r="D137" t="s">
+        <v>446</v>
+      </c>
+      <c r="E137" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" t="s">
+        <v>40</v>
+      </c>
+      <c r="G137" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" t="s">
+        <v>438</v>
+      </c>
+      <c r="I137" t="s">
+        <v>447</v>
+      </c>
+      <c r="J137" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>84</v>
+      </c>
+      <c r="F138" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s">
+        <v>448</v>
+      </c>
+      <c r="I138" t="s">
+        <v>449</v>
+      </c>
+      <c r="J138" t="s">
+        <v>450</v>
+      </c>
+      <c r="K138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>137</v>
+      </c>
+      <c r="F139" t="s">
+        <v>40</v>
+      </c>
+      <c r="G139" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" t="s">
+        <v>451</v>
+      </c>
+      <c r="I139" t="s">
+        <v>452</v>
+      </c>
+      <c r="J139" t="s">
+        <v>453</v>
+      </c>
+      <c r="K139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s">
+        <v>454</v>
+      </c>
+      <c r="I140" t="s">
+        <v>455</v>
+      </c>
+      <c r="J140" t="s">
+        <v>456</v>
+      </c>
+      <c r="K140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>156</v>
+      </c>
+      <c r="F141" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" t="s">
+        <v>457</v>
+      </c>
+      <c r="I141" t="s">
+        <v>458</v>
+      </c>
+      <c r="J141" t="s">
+        <v>459</v>
+      </c>
+      <c r="K141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>460</v>
+      </c>
+      <c r="B142" t="s">
+        <v>461</v>
+      </c>
+      <c r="C142" t="s">
+        <v>462</v>
+      </c>
+      <c r="D142" t="s">
+        <v>463</v>
+      </c>
+      <c r="E142" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s">
+        <v>464</v>
+      </c>
+      <c r="I142" t="s">
+        <v>465</v>
+      </c>
+      <c r="J142" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" t="s">
+        <v>466</v>
+      </c>
+      <c r="I143" t="s">
+        <v>467</v>
+      </c>
+      <c r="J143" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" t="s">
+        <v>40</v>
+      </c>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" t="s">
+        <v>468</v>
+      </c>
+      <c r="I144" t="s">
+        <v>469</v>
+      </c>
+      <c r="J144" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>254</v>
+      </c>
+      <c r="F145" t="s">
+        <v>432</v>
+      </c>
+      <c r="G145" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" t="s">
+        <v>470</v>
+      </c>
+      <c r="I145" t="s">
+        <v>471</v>
+      </c>
+      <c r="J145" t="s">
+        <v>472</v>
+      </c>
+      <c r="K145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s">
+        <v>473</v>
+      </c>
+      <c r="I146" t="s">
+        <v>474</v>
+      </c>
+      <c r="J146" t="s">
+        <v>475</v>
+      </c>
+      <c r="K146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>84</v>
+      </c>
+      <c r="F147" t="s">
+        <v>40</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" t="s">
+        <v>476</v>
+      </c>
+      <c r="I147" t="s">
+        <v>477</v>
+      </c>
+      <c r="J147" t="s">
+        <v>478</v>
+      </c>
+      <c r="K147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>130</v>
+      </c>
+      <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" t="s">
+        <v>479</v>
+      </c>
+      <c r="I148" t="s">
+        <v>480</v>
+      </c>
+      <c r="J148" t="s">
+        <v>481</v>
+      </c>
+      <c r="K148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+      <c r="F149" t="s">
+        <v>40</v>
+      </c>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" t="s">
+        <v>482</v>
+      </c>
+      <c r="I149" t="s">
+        <v>483</v>
+      </c>
+      <c r="J149" t="s">
+        <v>484</v>
+      </c>
+      <c r="K149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>156</v>
+      </c>
+      <c r="F150" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" t="s">
+        <v>485</v>
+      </c>
+      <c r="I150" t="s">
+        <v>486</v>
+      </c>
+      <c r="J150" t="s">
+        <v>487</v>
+      </c>
+      <c r="K150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
+      </c>
+      <c r="J151" t="s">
+        <v>12</v>
+      </c>
+      <c r="K151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>488</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" t="s">
+        <v>12</v>
+      </c>
+      <c r="J152" t="s">
+        <v>12</v>
+      </c>
+      <c r="K152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" t="s">
+        <v>489</v>
+      </c>
+      <c r="C153" t="s">
+        <v>490</v>
+      </c>
+      <c r="D153" t="s">
+        <v>491</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" t="s">
+        <v>12</v>
+      </c>
+      <c r="J153" t="s">
+        <v>12</v>
+      </c>
+      <c r="K153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
+        <v>492</v>
+      </c>
+      <c r="C154" t="s">
+        <v>493</v>
+      </c>
+      <c r="D154" t="s">
+        <v>494</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" t="s">
+        <v>12</v>
+      </c>
+      <c r="J154" t="s">
+        <v>12</v>
+      </c>
+      <c r="K154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>271</v>
+      </c>
+      <c r="B155" t="s">
+        <v>495</v>
+      </c>
+      <c r="C155" t="s">
+        <v>496</v>
+      </c>
+      <c r="D155" t="s">
+        <v>497</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+      <c r="J155" t="s">
+        <v>12</v>
+      </c>
+      <c r="K155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>284</v>
+      </c>
+      <c r="B156" t="s">
+        <v>498</v>
+      </c>
+      <c r="C156" t="s">
+        <v>499</v>
+      </c>
+      <c r="D156" t="s">
+        <v>500</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" t="s">
+        <v>12</v>
+      </c>
+      <c r="J156" t="s">
+        <v>12</v>
+      </c>
+      <c r="K156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>501</v>
+      </c>
+      <c r="B157" t="s">
+        <v>502</v>
+      </c>
+      <c r="C157" t="s">
+        <v>503</v>
+      </c>
+      <c r="D157" t="s">
+        <v>504</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+      <c r="J157" t="s">
+        <v>12</v>
+      </c>
+      <c r="K157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+      <c r="J158" t="s">
+        <v>12</v>
+      </c>
+      <c r="K158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>505</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159" t="s">
+        <v>12</v>
+      </c>
+      <c r="K159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>506</v>
+      </c>
+      <c r="B160" t="s">
+        <v>507</v>
+      </c>
+      <c r="C160" t="s">
+        <v>508</v>
+      </c>
+      <c r="D160" t="s">
+        <v>509</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" t="s">
+        <v>510</v>
+      </c>
+      <c r="I160" t="s">
+        <v>511</v>
+      </c>
+      <c r="J160" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F161" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" t="s">
+        <v>49</v>
+      </c>
+      <c r="H161" t="s">
+        <v>512</v>
+      </c>
+      <c r="I161" t="s">
+        <v>513</v>
+      </c>
+      <c r="J161" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>506</v>
+      </c>
+      <c r="B162" t="s">
+        <v>514</v>
+      </c>
+      <c r="C162" t="s">
+        <v>515</v>
+      </c>
+      <c r="D162" t="s">
+        <v>516</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" t="s">
+        <v>34</v>
+      </c>
+      <c r="H162" t="s">
+        <v>281</v>
+      </c>
+      <c r="I162" t="s">
+        <v>517</v>
+      </c>
+      <c r="J162" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>54</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" t="s">
+        <v>518</v>
+      </c>
+      <c r="I163" t="s">
+        <v>519</v>
+      </c>
+      <c r="J163" t="s">
+        <v>520</v>
+      </c>
+      <c r="K163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>506</v>
+      </c>
+      <c r="B164" t="s">
+        <v>521</v>
+      </c>
+      <c r="C164" t="s">
+        <v>522</v>
+      </c>
+      <c r="D164" t="s">
+        <v>523</v>
+      </c>
+      <c r="E164" t="s">
+        <v>39</v>
+      </c>
+      <c r="F164" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164" t="s">
+        <v>49</v>
+      </c>
+      <c r="H164" t="s">
+        <v>524</v>
+      </c>
+      <c r="I164" t="s">
+        <v>525</v>
+      </c>
+      <c r="J164" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>74</v>
+      </c>
+      <c r="F165" t="s">
+        <v>40</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" t="s">
+        <v>526</v>
+      </c>
+      <c r="I165" t="s">
+        <v>527</v>
+      </c>
+      <c r="J165" t="s">
+        <v>528</v>
+      </c>
+      <c r="K165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>506</v>
+      </c>
+      <c r="B166" t="s">
+        <v>529</v>
+      </c>
+      <c r="C166" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" t="s">
+        <v>531</v>
+      </c>
+      <c r="E166" t="s">
+        <v>54</v>
+      </c>
+      <c r="F166" t="s">
+        <v>40</v>
+      </c>
+      <c r="G166" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" t="s">
+        <v>532</v>
+      </c>
+      <c r="I166" t="s">
+        <v>533</v>
+      </c>
+      <c r="J166" t="s">
+        <v>534</v>
+      </c>
+      <c r="K166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" t="s">
+        <v>535</v>
+      </c>
+      <c r="I167" t="s">
+        <v>536</v>
+      </c>
+      <c r="J167" t="s">
+        <v>440</v>
+      </c>
+      <c r="K167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>506</v>
+      </c>
+      <c r="B168" t="s">
+        <v>537</v>
+      </c>
+      <c r="C168" t="s">
+        <v>538</v>
+      </c>
+      <c r="D168" t="s">
+        <v>539</v>
+      </c>
+      <c r="E168" t="s">
+        <v>74</v>
+      </c>
+      <c r="F168" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>540</v>
+      </c>
+      <c r="I168" t="s">
+        <v>541</v>
+      </c>
+      <c r="J168" t="s">
+        <v>542</v>
+      </c>
+      <c r="K168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>297</v>
+      </c>
+      <c r="F169" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s">
+        <v>24</v>
+      </c>
+      <c r="H169" t="s">
+        <v>543</v>
+      </c>
+      <c r="I169" t="s">
+        <v>544</v>
+      </c>
+      <c r="J169" t="s">
+        <v>545</v>
+      </c>
+      <c r="K169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" t="s">
+        <v>546</v>
+      </c>
+      <c r="C170" t="s">
+        <v>547</v>
+      </c>
+      <c r="D170" t="s">
+        <v>548</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>27</v>
+      </c>
+      <c r="G170" t="s">
+        <v>24</v>
+      </c>
+      <c r="H170" t="s">
+        <v>549</v>
+      </c>
+      <c r="I170" t="s">
+        <v>550</v>
+      </c>
+      <c r="J170" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171" t="s">
+        <v>40</v>
+      </c>
+      <c r="G171" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" t="s">
+        <v>551</v>
+      </c>
+      <c r="I171" t="s">
+        <v>552</v>
+      </c>
+      <c r="J171" t="s">
+        <v>553</v>
+      </c>
+      <c r="K171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>506</v>
+      </c>
+      <c r="B172" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" t="s">
+        <v>555</v>
+      </c>
+      <c r="D172" t="s">
+        <v>556</v>
+      </c>
+      <c r="E172" t="s">
+        <v>74</v>
+      </c>
+      <c r="F172" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" t="s">
+        <v>24</v>
+      </c>
+      <c r="H172" t="s">
+        <v>557</v>
+      </c>
+      <c r="I172" t="s">
+        <v>558</v>
+      </c>
+      <c r="J172" t="s">
+        <v>459</v>
+      </c>
+      <c r="K172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>74</v>
+      </c>
+      <c r="F173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G173" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" t="s">
+        <v>559</v>
+      </c>
+      <c r="I173" t="s">
+        <v>560</v>
+      </c>
+      <c r="J173" t="s">
+        <v>146</v>
+      </c>
+      <c r="K173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>506</v>
+      </c>
+      <c r="B174" t="s">
+        <v>561</v>
+      </c>
+      <c r="C174" t="s">
+        <v>562</v>
+      </c>
+      <c r="D174" t="s">
+        <v>563</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" t="s">
+        <v>40</v>
+      </c>
+      <c r="G174" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" t="s">
+        <v>564</v>
+      </c>
+      <c r="I174" t="s">
+        <v>565</v>
+      </c>
+      <c r="J174" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>58</v>
+      </c>
+      <c r="F175" t="s">
+        <v>27</v>
+      </c>
+      <c r="G175" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" t="s">
+        <v>566</v>
+      </c>
+      <c r="I175" t="s">
+        <v>567</v>
+      </c>
+      <c r="J175" t="s">
+        <v>403</v>
+      </c>
+      <c r="K175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>74</v>
+      </c>
+      <c r="F176" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" t="s">
+        <v>24</v>
+      </c>
+      <c r="H176" t="s">
+        <v>568</v>
+      </c>
+      <c r="I176" t="s">
+        <v>569</v>
+      </c>
+      <c r="J176" t="s">
+        <v>570</v>
+      </c>
+      <c r="K176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>297</v>
+      </c>
+      <c r="F177" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" t="s">
+        <v>571</v>
+      </c>
+      <c r="I177" t="s">
+        <v>572</v>
+      </c>
+      <c r="J177" t="s">
+        <v>573</v>
+      </c>
+      <c r="K177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>506</v>
+      </c>
+      <c r="B178" t="s">
+        <v>574</v>
+      </c>
+      <c r="C178" t="s">
+        <v>575</v>
+      </c>
+      <c r="D178" t="s">
+        <v>576</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" t="s">
+        <v>577</v>
+      </c>
+      <c r="I178" t="s">
+        <v>578</v>
+      </c>
+      <c r="J178" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>39</v>
+      </c>
+      <c r="F179" t="s">
+        <v>40</v>
+      </c>
+      <c r="G179" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" t="s">
+        <v>579</v>
+      </c>
+      <c r="I179" t="s">
+        <v>580</v>
+      </c>
+      <c r="J179" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>297</v>
+      </c>
+      <c r="F180" t="s">
+        <v>27</v>
+      </c>
+      <c r="G180" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" t="s">
+        <v>581</v>
+      </c>
+      <c r="I180" t="s">
+        <v>582</v>
+      </c>
+      <c r="J180" t="s">
+        <v>583</v>
+      </c>
+      <c r="K180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>506</v>
+      </c>
+      <c r="B181" t="s">
+        <v>584</v>
+      </c>
+      <c r="C181" t="s">
+        <v>585</v>
+      </c>
+      <c r="D181" t="s">
+        <v>586</v>
+      </c>
+      <c r="E181" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" t="s">
+        <v>432</v>
+      </c>
+      <c r="G181" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" t="s">
+        <v>587</v>
+      </c>
+      <c r="I181" t="s">
+        <v>588</v>
+      </c>
+      <c r="J181" t="s">
+        <v>589</v>
+      </c>
+      <c r="K181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>58</v>
+      </c>
+      <c r="F182" t="s">
+        <v>27</v>
+      </c>
+      <c r="G182" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" t="s">
+        <v>590</v>
+      </c>
+      <c r="I182" t="s">
+        <v>591</v>
+      </c>
+      <c r="J182" t="s">
+        <v>70</v>
+      </c>
+      <c r="K182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>506</v>
+      </c>
+      <c r="B183" t="s">
+        <v>592</v>
+      </c>
+      <c r="C183" t="s">
+        <v>593</v>
+      </c>
+      <c r="D183" t="s">
+        <v>594</v>
+      </c>
+      <c r="E183" t="s">
+        <v>54</v>
+      </c>
+      <c r="F183" t="s">
+        <v>40</v>
+      </c>
+      <c r="G183" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" t="s">
+        <v>595</v>
+      </c>
+      <c r="I183" t="s">
+        <v>596</v>
+      </c>
+      <c r="J183" t="s">
+        <v>597</v>
+      </c>
+      <c r="K183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>54</v>
+      </c>
+      <c r="F184" t="s">
+        <v>40</v>
+      </c>
+      <c r="G184" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184" t="s">
+        <v>379</v>
+      </c>
+      <c r="I184" t="s">
+        <v>598</v>
+      </c>
+      <c r="J184" t="s">
+        <v>599</v>
+      </c>
+      <c r="K184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>506</v>
+      </c>
+      <c r="B185" t="s">
+        <v>600</v>
+      </c>
+      <c r="C185" t="s">
+        <v>601</v>
+      </c>
+      <c r="D185" t="s">
+        <v>602</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s">
+        <v>603</v>
+      </c>
+      <c r="I185" t="s">
+        <v>604</v>
+      </c>
+      <c r="J185" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>54</v>
+      </c>
+      <c r="F186" t="s">
+        <v>40</v>
+      </c>
+      <c r="G186" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" t="s">
+        <v>605</v>
+      </c>
+      <c r="I186" t="s">
+        <v>606</v>
+      </c>
+      <c r="J186" t="s">
+        <v>607</v>
+      </c>
+      <c r="K186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>54</v>
+      </c>
+      <c r="F187" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s">
+        <v>608</v>
+      </c>
+      <c r="I187" t="s">
+        <v>609</v>
+      </c>
+      <c r="J187" t="s">
+        <v>610</v>
+      </c>
+      <c r="K187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>506</v>
+      </c>
+      <c r="B188" t="s">
+        <v>611</v>
+      </c>
+      <c r="C188" t="s">
+        <v>612</v>
+      </c>
+      <c r="D188" t="s">
+        <v>613</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" t="s">
+        <v>27</v>
+      </c>
+      <c r="G188" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" t="s">
+        <v>614</v>
+      </c>
+      <c r="I188" t="s">
+        <v>615</v>
+      </c>
+      <c r="J188" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>54</v>
+      </c>
+      <c r="F189" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" t="s">
+        <v>540</v>
+      </c>
+      <c r="I189" t="s">
+        <v>616</v>
+      </c>
+      <c r="J189" t="s">
+        <v>617</v>
+      </c>
+      <c r="K189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>58</v>
+      </c>
+      <c r="F190" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" t="s">
+        <v>433</v>
+      </c>
+      <c r="I190" t="s">
+        <v>618</v>
+      </c>
+      <c r="J190" t="s">
+        <v>619</v>
+      </c>
+      <c r="K190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+      <c r="J191" t="s">
+        <v>12</v>
+      </c>
+      <c r="K191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>620</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" t="s">
+        <v>12</v>
+      </c>
+      <c r="K192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>621</v>
+      </c>
+      <c r="B193" t="s">
+        <v>622</v>
+      </c>
+      <c r="C193" t="s">
+        <v>623</v>
+      </c>
+      <c r="D193" t="s">
+        <v>624</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" t="s">
+        <v>12</v>
+      </c>
+      <c r="J193" t="s">
+        <v>12</v>
+      </c>
+      <c r="K193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>625</v>
+      </c>
+      <c r="B194" t="s">
+        <v>626</v>
+      </c>
+      <c r="C194" t="s">
+        <v>627</v>
+      </c>
+      <c r="D194" t="s">
+        <v>628</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" t="s">
+        <v>12</v>
+      </c>
+      <c r="J194" t="s">
+        <v>12</v>
+      </c>
+      <c r="K194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>629</v>
+      </c>
+      <c r="B195" t="s">
+        <v>630</v>
+      </c>
+      <c r="C195" t="s">
+        <v>631</v>
+      </c>
+      <c r="D195" t="s">
+        <v>632</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" t="s">
+        <v>12</v>
+      </c>
+      <c r="J195" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>629</v>
+      </c>
+      <c r="B196" t="s">
+        <v>633</v>
+      </c>
+      <c r="C196" t="s">
+        <v>634</v>
+      </c>
+      <c r="D196" t="s">
+        <v>635</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" t="s">
+        <v>12</v>
+      </c>
+      <c r="J196" t="s">
+        <v>12</v>
+      </c>
+      <c r="K196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>636</v>
+      </c>
+      <c r="B197" t="s">
+        <v>637</v>
+      </c>
+      <c r="C197" t="s">
+        <v>638</v>
+      </c>
+      <c r="D197" t="s">
+        <v>639</v>
+      </c>
+      <c r="E197" t="s">
+        <v>39</v>
+      </c>
+      <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" t="s">
+        <v>640</v>
+      </c>
+      <c r="I197" t="s">
+        <v>641</v>
+      </c>
+      <c r="J197" t="s">
+        <v>22</v>
+      </c>
+      <c r="K197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>642</v>
+      </c>
+      <c r="B198" t="s">
+        <v>643</v>
+      </c>
+      <c r="C198" t="s">
+        <v>644</v>
+      </c>
+      <c r="D198" t="s">
+        <v>645</v>
+      </c>
+      <c r="E198" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" t="s">
+        <v>27</v>
+      </c>
+      <c r="G198" t="s">
+        <v>24</v>
+      </c>
+      <c r="H198" t="s">
+        <v>646</v>
+      </c>
+      <c r="I198" t="s">
+        <v>647</v>
+      </c>
+      <c r="J198" t="s">
+        <v>22</v>
+      </c>
+      <c r="K198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" t="s">
+        <v>648</v>
+      </c>
+      <c r="I199" t="s">
+        <v>649</v>
+      </c>
+      <c r="J199" t="s">
+        <v>22</v>
+      </c>
+      <c r="K199" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>642</v>
+      </c>
+      <c r="B200" t="s">
+        <v>650</v>
+      </c>
+      <c r="C200" t="s">
+        <v>651</v>
+      </c>
+      <c r="D200" t="s">
+        <v>652</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" t="s">
+        <v>12</v>
+      </c>
+      <c r="K200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>653</v>
+      </c>
+      <c r="B201" t="s">
+        <v>654</v>
+      </c>
+      <c r="C201" t="s">
+        <v>655</v>
+      </c>
+      <c r="D201" t="s">
+        <v>656</v>
+      </c>
+      <c r="E201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" t="s">
+        <v>49</v>
+      </c>
+      <c r="H201" t="s">
+        <v>657</v>
+      </c>
+      <c r="I201" t="s">
+        <v>658</v>
+      </c>
+      <c r="J201" t="s">
+        <v>22</v>
+      </c>
+      <c r="K201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>659</v>
+      </c>
+      <c r="B202" t="s">
+        <v>660</v>
+      </c>
+      <c r="C202" t="s">
+        <v>352</v>
+      </c>
+      <c r="D202" t="s">
+        <v>661</v>
+      </c>
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" t="s">
+        <v>24</v>
+      </c>
+      <c r="H202" t="s">
+        <v>662</v>
+      </c>
+      <c r="I202" t="s">
+        <v>663</v>
+      </c>
+      <c r="J202" t="s">
+        <v>22</v>
+      </c>
+      <c r="K202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>39</v>
+      </c>
+      <c r="F203" t="s">
+        <v>40</v>
+      </c>
+      <c r="G203" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" t="s">
+        <v>664</v>
+      </c>
+      <c r="I203" t="s">
+        <v>665</v>
+      </c>
+      <c r="J203" t="s">
+        <v>22</v>
+      </c>
+      <c r="K203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204" t="s">
+        <v>12</v>
+      </c>
+      <c r="K204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>666</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" t="s">
+        <v>12</v>
+      </c>
+      <c r="J205" t="s">
+        <v>12</v>
+      </c>
+      <c r="K205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>667</v>
+      </c>
+      <c r="B206" t="s">
+        <v>668</v>
+      </c>
+      <c r="C206" t="s">
+        <v>669</v>
+      </c>
+      <c r="D206" t="s">
+        <v>670</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" t="s">
+        <v>12</v>
+      </c>
+      <c r="J206" t="s">
+        <v>12</v>
+      </c>
+      <c r="K206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>667</v>
+      </c>
+      <c r="B207" t="s">
+        <v>671</v>
+      </c>
+      <c r="C207" t="s">
+        <v>672</v>
+      </c>
+      <c r="D207" t="s">
+        <v>673</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" t="s">
+        <v>12</v>
+      </c>
+      <c r="I207" t="s">
+        <v>12</v>
+      </c>
+      <c r="J207" t="s">
+        <v>12</v>
+      </c>
+      <c r="K207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>667</v>
+      </c>
+      <c r="B208" t="s">
+        <v>674</v>
+      </c>
+      <c r="C208" t="s">
+        <v>675</v>
+      </c>
+      <c r="D208" t="s">
+        <v>676</v>
+      </c>
+      <c r="E208" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" t="s">
+        <v>12</v>
+      </c>
+      <c r="I208" t="s">
+        <v>12</v>
+      </c>
+      <c r="J208" t="s">
+        <v>12</v>
+      </c>
+      <c r="K208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>677</v>
+      </c>
+      <c r="B209" t="s">
+        <v>678</v>
+      </c>
+      <c r="C209" t="s">
+        <v>679</v>
+      </c>
+      <c r="D209" t="s">
+        <v>680</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>12</v>
+      </c>
+      <c r="H209" t="s">
+        <v>12</v>
+      </c>
+      <c r="I209" t="s">
+        <v>12</v>
+      </c>
+      <c r="J209" t="s">
+        <v>12</v>
+      </c>
+      <c r="K209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>677</v>
+      </c>
+      <c r="B210" t="s">
+        <v>681</v>
+      </c>
+      <c r="C210" t="s">
+        <v>682</v>
+      </c>
+      <c r="D210" t="s">
+        <v>683</v>
+      </c>
+      <c r="E210" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>12</v>
+      </c>
+      <c r="H210" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" t="s">
+        <v>12</v>
+      </c>
+      <c r="J210" t="s">
+        <v>12</v>
+      </c>
+      <c r="K210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>677</v>
+      </c>
+      <c r="B211" t="s">
+        <v>684</v>
+      </c>
+      <c r="C211" t="s">
+        <v>685</v>
+      </c>
+      <c r="D211" t="s">
+        <v>686</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" t="s">
+        <v>12</v>
+      </c>
+      <c r="I211" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" t="s">
+        <v>12</v>
+      </c>
+      <c r="K211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>677</v>
+      </c>
+      <c r="B212" t="s">
+        <v>687</v>
+      </c>
+      <c r="C212" t="s">
+        <v>688</v>
+      </c>
+      <c r="D212" t="s">
+        <v>689</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" t="s">
+        <v>12</v>
+      </c>
+      <c r="I212" t="s">
+        <v>12</v>
+      </c>
+      <c r="J212" t="s">
+        <v>12</v>
+      </c>
+      <c r="K212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>677</v>
+      </c>
+      <c r="B213" t="s">
+        <v>690</v>
+      </c>
+      <c r="C213" t="s">
+        <v>691</v>
+      </c>
+      <c r="D213" t="s">
+        <v>692</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213" t="s">
+        <v>12</v>
+      </c>
+      <c r="J213" t="s">
+        <v>12</v>
+      </c>
+      <c r="K213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" t="s">
+        <v>12</v>
+      </c>
+      <c r="I214" t="s">
+        <v>12</v>
+      </c>
+      <c r="J214" t="s">
+        <v>12</v>
+      </c>
+      <c r="K214" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesRU-SEO.xlsx
+++ b/allPages/allPagesRU-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="757">
   <si>
     <t>Date</t>
   </si>
@@ -520,7 +520,7 @@
     <t>https://t-h-logistics.com/business_in_ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса </t>
+    <t>Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса</t>
   </si>
   <si>
     <t>торговый посредник, внешнеторговый агент, экспортный консультант, импортный брокер, ВЭД консультации, мировая торговля, международный бизнес, торговля с Украиной, внешнеэкономическая деятельность</t>
@@ -1132,6 +1132,21 @@
     <t>Услуги от компании Транс-Хоуп</t>
   </si>
   <si>
+    <t>19/05/2020</t>
+  </si>
+  <si>
+    <t>Ssss111</t>
+  </si>
+  <si>
+    <t>sss.com</t>
+  </si>
+  <si>
+    <t>https://sss.com/post1111</t>
+  </si>
+  <si>
+    <t>sss ankor11</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/customs_clearance</t>
   </si>
   <si>
@@ -1352,24 +1367,6 @@
   </si>
   <si>
     <t>Авиа перевозки, Грузовые авиаперевозки, Международные авиа перевозки, Перевозка грузов по воздуху, Логистика авиаперевозок, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
-  </si>
-  <si>
-    <t>21/11/2024</t>
-  </si>
-  <si>
-    <t>some type</t>
-  </si>
-  <si>
-    <t>domen.com</t>
-  </si>
-  <si>
-    <t>domen.com/aldkjf</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>rohitab.com</t>
@@ -2066,7 +2063,7 @@
     <t>https://t-h-logistics.com/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
   </si>
   <si>
-    <t>10 распространенных культурных ошибок, совершаемых иностранными бизнесменами в Китае</t>
+    <t xml:space="preserve">10 распространенных культурных ошибок, совершаемых иностранными бизнесменами в Китае </t>
   </si>
   <si>
     <t>культурные ошибки в Китае, ошибки иностранных бизнесменов в Китае, китайский деловой этикет, как вести бизнес в Китае, китайская культура в бизнесе, ошибки в китайском бизнесе, деловые связи в Китае, гость и этикет в Китае, культура «гуаньси», правила общения с китайскими партнерами</t>
@@ -2078,7 +2075,7 @@
     <t>https://t-h-logistics.com/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
-    <t>Контейнерные перевозки Гдыня.</t>
+    <t xml:space="preserve">Контейнерные перевозки Гдыня. </t>
   </si>
   <si>
     <t>рузоперевозки, морские перевозки, контейнерный транспорт, порт Гдыня, морской порт, контейнерные терминалы, Польша, Европа, контейнерные перевозки Гдыня</t>
@@ -6695,22 +6692,22 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
         <v>373</v>
       </c>
-      <c r="C116" t="s">
+      <c r="F116" t="s">
         <v>374</v>
-      </c>
-      <c r="D116" t="s">
-        <v>173</v>
-      </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" t="s">
-        <v>17</v>
       </c>
       <c r="G116" t="s">
         <v>23</v>
@@ -6722,24 +6719,24 @@
         <v>376</v>
       </c>
       <c r="J116" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" t="s">
-        <v>22</v>
+        <v>377</v>
+      </c>
+      <c r="K116">
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>379</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="E117" t="s">
         <v>16</v>
@@ -6748,16 +6745,16 @@
         <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I117" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J117" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="K117" t="s">
         <v>22</v>
@@ -6777,22 +6774,22 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I118" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J118" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="K118" t="s">
         <v>22</v>
@@ -6818,13 +6815,13 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I119" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J119" t="s">
         <v>59</v>
@@ -6847,22 +6844,22 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H120" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I120" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J120" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="K120" t="s">
         <v>22</v>
@@ -6882,22 +6879,22 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I121" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J121" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K121" t="s">
         <v>22</v>
@@ -6917,22 +6914,22 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="F122" t="s">
         <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I122" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J122" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K122" t="s">
         <v>22</v>
@@ -6961,13 +6958,13 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I123" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>396</v>
       </c>
       <c r="K123" t="s">
         <v>22</v>
@@ -6987,7 +6984,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F124" t="s">
         <v>42</v>
@@ -6996,10 +6993,10 @@
         <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I124" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J124" t="s">
         <v>22</v>
@@ -7022,22 +7019,22 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="F125" t="s">
         <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I125" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J125" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K125" t="s">
         <v>22</v>
@@ -7045,25 +7042,25 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H126" t="s">
         <v>401</v>
@@ -7072,7 +7069,7 @@
         <v>402</v>
       </c>
       <c r="J126" t="s">
-        <v>403</v>
+        <v>116</v>
       </c>
       <c r="K126" t="s">
         <v>22</v>
@@ -7080,16 +7077,16 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="E127" t="s">
         <v>16</v>
@@ -7098,16 +7095,16 @@
         <v>17</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H127" t="s">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="I127" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J127" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K127" t="s">
         <v>22</v>
@@ -7133,16 +7130,16 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>406</v>
+        <v>225</v>
       </c>
       <c r="I128" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J128" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K128" t="s">
         <v>22</v>
@@ -7162,22 +7159,22 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H129" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I129" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J129" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K129" t="s">
         <v>22</v>
@@ -7203,16 +7200,16 @@
         <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H130" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="I130" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J130" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K130" t="s">
         <v>22</v>
@@ -7238,13 +7235,13 @@
         <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H131" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I131" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J131" t="s">
         <v>408</v>
@@ -7270,19 +7267,19 @@
         <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H132" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I132" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>413</v>
       </c>
       <c r="K132" t="s">
         <v>22</v>
@@ -7302,22 +7299,22 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I133" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K133" t="s">
         <v>22</v>
@@ -7337,19 +7334,19 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I134" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J134" t="s">
         <v>21</v>
@@ -7372,22 +7369,22 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="F135" t="s">
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H135" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I135" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K135" t="s">
         <v>22</v>
@@ -7407,22 +7404,22 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F136" t="s">
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H136" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I136" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J136" t="s">
-        <v>426</v>
+        <v>22</v>
       </c>
       <c r="K136" t="s">
         <v>22</v>
@@ -7430,28 +7427,28 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>151</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" t="s">
         <v>429</v>
-      </c>
-      <c r="E137" t="s">
-        <v>41</v>
-      </c>
-      <c r="F137" t="s">
-        <v>42</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
-      <c r="H137" t="s">
-        <v>422</v>
       </c>
       <c r="I137" t="s">
         <v>430</v>
@@ -7465,34 +7462,34 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="E138" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
         <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H138" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I138" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J138" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K138" t="s">
         <v>22</v>
@@ -7512,22 +7509,22 @@
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="F139" t="s">
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H139" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I139" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J139" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K139" t="s">
         <v>22</v>
@@ -7547,22 +7544,22 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F140" t="s">
         <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H140" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I140" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J140" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="K140" t="s">
         <v>22</v>
@@ -7582,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F141" t="s">
         <v>42</v>
@@ -7591,13 +7588,13 @@
         <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I141" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J141" t="s">
-        <v>442</v>
+        <v>22</v>
       </c>
       <c r="K141" t="s">
         <v>22</v>
@@ -7605,51 +7602,51 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s">
         <v>445</v>
       </c>
-      <c r="D142" t="s">
+      <c r="I142" t="s">
         <v>446</v>
       </c>
-      <c r="E142" t="s">
+      <c r="J142" t="s">
         <v>447</v>
       </c>
-      <c r="F142" t="s">
-        <v>448</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s">
-        <v>449</v>
-      </c>
-      <c r="I142" t="s">
-        <v>450</v>
-      </c>
-      <c r="J142" t="s">
-        <v>451</v>
-      </c>
       <c r="K142" t="s">
-        <v>452</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="E143" t="s">
         <v>16</v>
@@ -7661,13 +7658,13 @@
         <v>23</v>
       </c>
       <c r="H143" t="s">
+        <v>452</v>
+      </c>
+      <c r="I143" t="s">
         <v>453</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>454</v>
-      </c>
-      <c r="J143" t="s">
-        <v>455</v>
       </c>
       <c r="K143" t="s">
         <v>22</v>
@@ -7696,13 +7693,13 @@
         <v>18</v>
       </c>
       <c r="H144" t="s">
+        <v>455</v>
+      </c>
+      <c r="I144" t="s">
         <v>456</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>457</v>
-      </c>
-      <c r="J144" t="s">
-        <v>458</v>
       </c>
       <c r="K144" t="s">
         <v>22</v>
@@ -7731,13 +7728,13 @@
         <v>23</v>
       </c>
       <c r="H145" t="s">
+        <v>458</v>
+      </c>
+      <c r="I145" t="s">
         <v>459</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>460</v>
-      </c>
-      <c r="J145" t="s">
-        <v>461</v>
       </c>
       <c r="K145" t="s">
         <v>22</v>
@@ -7760,16 +7757,16 @@
         <v>241</v>
       </c>
       <c r="F146" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G146" t="s">
         <v>18</v>
       </c>
       <c r="H146" t="s">
+        <v>461</v>
+      </c>
+      <c r="I146" t="s">
         <v>462</v>
-      </c>
-      <c r="I146" t="s">
-        <v>463</v>
       </c>
       <c r="J146" t="s">
         <v>22</v>
@@ -7801,13 +7798,13 @@
         <v>23</v>
       </c>
       <c r="H147" t="s">
+        <v>463</v>
+      </c>
+      <c r="I147" t="s">
         <v>464</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>465</v>
-      </c>
-      <c r="J147" t="s">
-        <v>466</v>
       </c>
       <c r="K147" t="s">
         <v>22</v>
@@ -7836,13 +7833,13 @@
         <v>23</v>
       </c>
       <c r="H148" t="s">
+        <v>466</v>
+      </c>
+      <c r="I148" t="s">
         <v>467</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>468</v>
-      </c>
-      <c r="J148" t="s">
-        <v>469</v>
       </c>
       <c r="K148" t="s">
         <v>22</v>
@@ -7871,13 +7868,13 @@
         <v>23</v>
       </c>
       <c r="H149" t="s">
+        <v>469</v>
+      </c>
+      <c r="I149" t="s">
         <v>470</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>471</v>
-      </c>
-      <c r="J149" t="s">
-        <v>472</v>
       </c>
       <c r="K149" t="s">
         <v>22</v>
@@ -7906,10 +7903,10 @@
         <v>23</v>
       </c>
       <c r="H150" t="s">
+        <v>472</v>
+      </c>
+      <c r="I150" t="s">
         <v>473</v>
-      </c>
-      <c r="I150" t="s">
-        <v>474</v>
       </c>
       <c r="J150" t="s">
         <v>22</v>
@@ -7941,10 +7938,10 @@
         <v>23</v>
       </c>
       <c r="H151" t="s">
+        <v>474</v>
+      </c>
+      <c r="I151" t="s">
         <v>475</v>
-      </c>
-      <c r="I151" t="s">
-        <v>476</v>
       </c>
       <c r="J151" t="s">
         <v>147</v>
@@ -7990,7 +7987,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -8028,13 +8025,13 @@
         <v>257</v>
       </c>
       <c r="B154" t="s">
+        <v>477</v>
+      </c>
+      <c r="C154" t="s">
         <v>478</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>479</v>
-      </c>
-      <c r="D154" t="s">
-        <v>480</v>
       </c>
       <c r="E154" t="s">
         <v>16</v>
@@ -8046,13 +8043,13 @@
         <v>23</v>
       </c>
       <c r="H154" t="s">
+        <v>480</v>
+      </c>
+      <c r="I154" t="s">
         <v>481</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>482</v>
-      </c>
-      <c r="J154" t="s">
-        <v>483</v>
       </c>
       <c r="K154" t="s">
         <v>22</v>
@@ -8081,13 +8078,13 @@
         <v>23</v>
       </c>
       <c r="H155" t="s">
+        <v>483</v>
+      </c>
+      <c r="I155" t="s">
         <v>484</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>485</v>
-      </c>
-      <c r="J155" t="s">
-        <v>486</v>
       </c>
       <c r="K155" t="s">
         <v>22</v>
@@ -8116,10 +8113,10 @@
         <v>23</v>
       </c>
       <c r="H156" t="s">
+        <v>486</v>
+      </c>
+      <c r="I156" t="s">
         <v>487</v>
-      </c>
-      <c r="I156" t="s">
-        <v>488</v>
       </c>
       <c r="J156" t="s">
         <v>22</v>
@@ -8151,13 +8148,13 @@
         <v>23</v>
       </c>
       <c r="H157" t="s">
+        <v>488</v>
+      </c>
+      <c r="I157" t="s">
         <v>489</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>490</v>
-      </c>
-      <c r="J157" t="s">
-        <v>491</v>
       </c>
       <c r="K157" t="s">
         <v>22</v>
@@ -8186,10 +8183,10 @@
         <v>23</v>
       </c>
       <c r="H158" t="s">
+        <v>491</v>
+      </c>
+      <c r="I158" t="s">
         <v>492</v>
-      </c>
-      <c r="I158" t="s">
-        <v>493</v>
       </c>
       <c r="J158" t="s">
         <v>22</v>
@@ -8221,13 +8218,13 @@
         <v>18</v>
       </c>
       <c r="H159" t="s">
+        <v>493</v>
+      </c>
+      <c r="I159" t="s">
         <v>494</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>495</v>
-      </c>
-      <c r="J159" t="s">
-        <v>496</v>
       </c>
       <c r="K159" t="s">
         <v>22</v>
@@ -8256,13 +8253,13 @@
         <v>23</v>
       </c>
       <c r="H160" t="s">
+        <v>496</v>
+      </c>
+      <c r="I160" t="s">
         <v>497</v>
       </c>
-      <c r="I160" t="s">
-        <v>498</v>
-      </c>
       <c r="J160" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K160" t="s">
         <v>22</v>
@@ -8273,13 +8270,13 @@
         <v>257</v>
       </c>
       <c r="B161" t="s">
+        <v>498</v>
+      </c>
+      <c r="C161" t="s">
         <v>499</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>500</v>
-      </c>
-      <c r="D161" t="s">
-        <v>501</v>
       </c>
       <c r="E161" t="s">
         <v>41</v>
@@ -8291,13 +8288,13 @@
         <v>23</v>
       </c>
       <c r="H161" t="s">
+        <v>501</v>
+      </c>
+      <c r="I161" t="s">
         <v>502</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>503</v>
-      </c>
-      <c r="J161" t="s">
-        <v>504</v>
       </c>
       <c r="K161" t="s">
         <v>22</v>
@@ -8320,16 +8317,16 @@
         <v>241</v>
       </c>
       <c r="F162" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G162" t="s">
         <v>18</v>
       </c>
       <c r="H162" t="s">
+        <v>504</v>
+      </c>
+      <c r="I162" t="s">
         <v>505</v>
-      </c>
-      <c r="I162" t="s">
-        <v>506</v>
       </c>
       <c r="J162" t="s">
         <v>22</v>
@@ -8364,10 +8361,10 @@
         <v>79</v>
       </c>
       <c r="I163" t="s">
+        <v>506</v>
+      </c>
+      <c r="J163" t="s">
         <v>507</v>
-      </c>
-      <c r="J163" t="s">
-        <v>508</v>
       </c>
       <c r="K163" t="s">
         <v>22</v>
@@ -8396,10 +8393,10 @@
         <v>18</v>
       </c>
       <c r="H164" t="s">
+        <v>508</v>
+      </c>
+      <c r="I164" t="s">
         <v>509</v>
-      </c>
-      <c r="I164" t="s">
-        <v>510</v>
       </c>
       <c r="J164" t="s">
         <v>22</v>
@@ -8431,13 +8428,13 @@
         <v>53</v>
       </c>
       <c r="H165" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I165" t="s">
+        <v>510</v>
+      </c>
+      <c r="J165" t="s">
         <v>511</v>
-      </c>
-      <c r="J165" t="s">
-        <v>512</v>
       </c>
       <c r="K165" t="s">
         <v>22</v>
@@ -8466,13 +8463,13 @@
         <v>18</v>
       </c>
       <c r="H166" t="s">
+        <v>512</v>
+      </c>
+      <c r="I166" t="s">
         <v>513</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>514</v>
-      </c>
-      <c r="J166" t="s">
-        <v>515</v>
       </c>
       <c r="K166" t="s">
         <v>22</v>
@@ -8483,13 +8480,13 @@
         <v>257</v>
       </c>
       <c r="B167" t="s">
+        <v>515</v>
+      </c>
+      <c r="C167" t="s">
         <v>516</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>517</v>
-      </c>
-      <c r="D167" t="s">
-        <v>518</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -8501,13 +8498,13 @@
         <v>23</v>
       </c>
       <c r="H167" t="s">
+        <v>518</v>
+      </c>
+      <c r="I167" t="s">
         <v>519</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>520</v>
-      </c>
-      <c r="J167" t="s">
-        <v>521</v>
       </c>
       <c r="K167" t="s">
         <v>22</v>
@@ -8536,13 +8533,13 @@
         <v>18</v>
       </c>
       <c r="H168" t="s">
+        <v>521</v>
+      </c>
+      <c r="I168" t="s">
         <v>522</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
         <v>523</v>
-      </c>
-      <c r="J168" t="s">
-        <v>524</v>
       </c>
       <c r="K168" t="s">
         <v>22</v>
@@ -8571,13 +8568,13 @@
         <v>35</v>
       </c>
       <c r="H169" t="s">
+        <v>524</v>
+      </c>
+      <c r="I169" t="s">
         <v>525</v>
       </c>
-      <c r="I169" t="s">
+      <c r="J169" t="s">
         <v>526</v>
-      </c>
-      <c r="J169" t="s">
-        <v>527</v>
       </c>
       <c r="K169" t="s">
         <v>22</v>
@@ -8609,7 +8606,7 @@
         <v>82</v>
       </c>
       <c r="I170" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J170" t="s">
         <v>22</v>
@@ -8641,10 +8638,10 @@
         <v>35</v>
       </c>
       <c r="H171" t="s">
+        <v>528</v>
+      </c>
+      <c r="I171" t="s">
         <v>529</v>
-      </c>
-      <c r="I171" t="s">
-        <v>530</v>
       </c>
       <c r="J171" t="s">
         <v>265</v>
@@ -8658,13 +8655,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
+        <v>530</v>
+      </c>
+      <c r="C172" t="s">
         <v>531</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>532</v>
-      </c>
-      <c r="D172" t="s">
-        <v>533</v>
       </c>
       <c r="E172" t="s">
         <v>41</v>
@@ -8676,13 +8673,13 @@
         <v>23</v>
       </c>
       <c r="H172" t="s">
+        <v>533</v>
+      </c>
+      <c r="I172" t="s">
         <v>534</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>535</v>
-      </c>
-      <c r="J172" t="s">
-        <v>536</v>
       </c>
       <c r="K172" t="s">
         <v>22</v>
@@ -8714,10 +8711,10 @@
         <v>308</v>
       </c>
       <c r="I173" t="s">
+        <v>536</v>
+      </c>
+      <c r="J173" t="s">
         <v>537</v>
-      </c>
-      <c r="J173" t="s">
-        <v>538</v>
       </c>
       <c r="K173" t="s">
         <v>22</v>
@@ -8746,10 +8743,10 @@
         <v>23</v>
       </c>
       <c r="H174" t="s">
+        <v>538</v>
+      </c>
+      <c r="I174" t="s">
         <v>539</v>
-      </c>
-      <c r="I174" t="s">
-        <v>540</v>
       </c>
       <c r="J174" t="s">
         <v>22</v>
@@ -8781,13 +8778,13 @@
         <v>23</v>
       </c>
       <c r="H175" t="s">
+        <v>540</v>
+      </c>
+      <c r="I175" t="s">
         <v>541</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>542</v>
-      </c>
-      <c r="J175" t="s">
-        <v>543</v>
       </c>
       <c r="K175" t="s">
         <v>22</v>
@@ -8816,10 +8813,10 @@
         <v>23</v>
       </c>
       <c r="H176" t="s">
+        <v>543</v>
+      </c>
+      <c r="I176" t="s">
         <v>544</v>
-      </c>
-      <c r="I176" t="s">
-        <v>545</v>
       </c>
       <c r="J176" t="s">
         <v>22</v>
@@ -8830,16 +8827,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>545</v>
+      </c>
+      <c r="B177" t="s">
         <v>546</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>547</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>548</v>
-      </c>
-      <c r="D177" t="s">
-        <v>549</v>
       </c>
       <c r="E177" t="s">
         <v>16</v>
@@ -8851,13 +8848,13 @@
         <v>23</v>
       </c>
       <c r="H177" t="s">
+        <v>549</v>
+      </c>
+      <c r="I177" t="s">
         <v>550</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>551</v>
-      </c>
-      <c r="J177" t="s">
-        <v>552</v>
       </c>
       <c r="K177" t="s">
         <v>22</v>
@@ -8886,13 +8883,13 @@
         <v>18</v>
       </c>
       <c r="H178" t="s">
+        <v>552</v>
+      </c>
+      <c r="I178" t="s">
         <v>553</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>554</v>
-      </c>
-      <c r="J178" t="s">
-        <v>555</v>
       </c>
       <c r="K178" t="s">
         <v>22</v>
@@ -8921,13 +8918,13 @@
         <v>23</v>
       </c>
       <c r="H179" t="s">
+        <v>555</v>
+      </c>
+      <c r="I179" t="s">
         <v>556</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179" t="s">
         <v>557</v>
-      </c>
-      <c r="J179" t="s">
-        <v>558</v>
       </c>
       <c r="K179" t="s">
         <v>22</v>
@@ -8956,13 +8953,13 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
+        <v>558</v>
+      </c>
+      <c r="I180" t="s">
         <v>559</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
         <v>560</v>
-      </c>
-      <c r="J180" t="s">
-        <v>561</v>
       </c>
       <c r="K180" t="s">
         <v>22</v>
@@ -8991,13 +8988,13 @@
         <v>23</v>
       </c>
       <c r="H181" t="s">
+        <v>561</v>
+      </c>
+      <c r="I181" t="s">
         <v>562</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>563</v>
-      </c>
-      <c r="J181" t="s">
-        <v>564</v>
       </c>
       <c r="K181" t="s">
         <v>22</v>
@@ -9026,13 +9023,13 @@
         <v>35</v>
       </c>
       <c r="H182" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="I182" t="s">
+        <v>564</v>
+      </c>
+      <c r="J182" t="s">
         <v>565</v>
-      </c>
-      <c r="J182" t="s">
-        <v>566</v>
       </c>
       <c r="K182" t="s">
         <v>22</v>
@@ -9061,13 +9058,13 @@
         <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I183" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J183" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K183" t="s">
         <v>22</v>
@@ -9096,10 +9093,10 @@
         <v>23</v>
       </c>
       <c r="H184" t="s">
+        <v>567</v>
+      </c>
+      <c r="I184" t="s">
         <v>568</v>
-      </c>
-      <c r="I184" t="s">
-        <v>569</v>
       </c>
       <c r="J184" t="s">
         <v>22</v>
@@ -9145,7 +9142,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B186" t="s">
         <v>12</v>
@@ -9180,16 +9177,16 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>570</v>
+      </c>
+      <c r="B187" t="s">
         <v>571</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>572</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>573</v>
-      </c>
-      <c r="D187" t="s">
-        <v>574</v>
       </c>
       <c r="E187" t="s">
         <v>16</v>
@@ -9201,10 +9198,10 @@
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I187" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J187" t="s">
         <v>22</v>
@@ -9236,13 +9233,13 @@
         <v>53</v>
       </c>
       <c r="H188" t="s">
+        <v>575</v>
+      </c>
+      <c r="I188" t="s">
         <v>576</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>577</v>
-      </c>
-      <c r="J188" t="s">
-        <v>578</v>
       </c>
       <c r="K188" t="s">
         <v>22</v>
@@ -9250,16 +9247,16 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B189" t="s">
+        <v>578</v>
+      </c>
+      <c r="C189" t="s">
         <v>579</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>580</v>
-      </c>
-      <c r="D189" t="s">
-        <v>581</v>
       </c>
       <c r="E189" t="s">
         <v>41</v>
@@ -9274,10 +9271,10 @@
         <v>269</v>
       </c>
       <c r="I189" t="s">
+        <v>581</v>
+      </c>
+      <c r="J189" t="s">
         <v>582</v>
-      </c>
-      <c r="J189" t="s">
-        <v>583</v>
       </c>
       <c r="K189" t="s">
         <v>22</v>
@@ -9306,10 +9303,10 @@
         <v>23</v>
       </c>
       <c r="H190" t="s">
+        <v>583</v>
+      </c>
+      <c r="I190" t="s">
         <v>584</v>
-      </c>
-      <c r="I190" t="s">
-        <v>585</v>
       </c>
       <c r="J190" t="s">
         <v>88</v>
@@ -9320,16 +9317,16 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B191" t="s">
+        <v>585</v>
+      </c>
+      <c r="C191" t="s">
         <v>586</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>587</v>
-      </c>
-      <c r="D191" t="s">
-        <v>588</v>
       </c>
       <c r="E191" t="s">
         <v>41</v>
@@ -9341,13 +9338,13 @@
         <v>53</v>
       </c>
       <c r="H191" t="s">
+        <v>588</v>
+      </c>
+      <c r="I191" t="s">
         <v>589</v>
       </c>
-      <c r="I191" t="s">
+      <c r="J191" t="s">
         <v>590</v>
-      </c>
-      <c r="J191" t="s">
-        <v>591</v>
       </c>
       <c r="K191" t="s">
         <v>22</v>
@@ -9376,10 +9373,10 @@
         <v>23</v>
       </c>
       <c r="H192" t="s">
+        <v>591</v>
+      </c>
+      <c r="I192" t="s">
         <v>592</v>
-      </c>
-      <c r="I192" t="s">
-        <v>593</v>
       </c>
       <c r="J192" t="s">
         <v>22</v>
@@ -9390,16 +9387,16 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B193" t="s">
+        <v>593</v>
+      </c>
+      <c r="C193" t="s">
         <v>594</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>595</v>
-      </c>
-      <c r="D193" t="s">
-        <v>596</v>
       </c>
       <c r="E193" t="s">
         <v>60</v>
@@ -9411,10 +9408,10 @@
         <v>23</v>
       </c>
       <c r="H193" t="s">
+        <v>596</v>
+      </c>
+      <c r="I193" t="s">
         <v>597</v>
-      </c>
-      <c r="I193" t="s">
-        <v>598</v>
       </c>
       <c r="J193" t="s">
         <v>22</v>
@@ -9446,10 +9443,10 @@
         <v>18</v>
       </c>
       <c r="H194" t="s">
+        <v>598</v>
+      </c>
+      <c r="I194" t="s">
         <v>599</v>
-      </c>
-      <c r="I194" t="s">
-        <v>600</v>
       </c>
       <c r="J194" t="s">
         <v>22</v>
@@ -9460,16 +9457,16 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B195" t="s">
+        <v>600</v>
+      </c>
+      <c r="C195" t="s">
         <v>601</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>602</v>
-      </c>
-      <c r="D195" t="s">
-        <v>603</v>
       </c>
       <c r="E195" t="s">
         <v>75</v>
@@ -9481,13 +9478,13 @@
         <v>18</v>
       </c>
       <c r="H195" t="s">
+        <v>603</v>
+      </c>
+      <c r="I195" t="s">
         <v>604</v>
       </c>
-      <c r="I195" t="s">
+      <c r="J195" t="s">
         <v>605</v>
-      </c>
-      <c r="J195" t="s">
-        <v>606</v>
       </c>
       <c r="K195" t="s">
         <v>22</v>
@@ -9516,10 +9513,10 @@
         <v>23</v>
       </c>
       <c r="H196" t="s">
+        <v>606</v>
+      </c>
+      <c r="I196" t="s">
         <v>607</v>
-      </c>
-      <c r="I196" t="s">
-        <v>608</v>
       </c>
       <c r="J196" t="s">
         <v>22</v>
@@ -9530,16 +9527,16 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B197" t="s">
+        <v>608</v>
+      </c>
+      <c r="C197" t="s">
         <v>609</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>610</v>
-      </c>
-      <c r="D197" t="s">
-        <v>611</v>
       </c>
       <c r="E197" t="s">
         <v>16</v>
@@ -9551,10 +9548,10 @@
         <v>23</v>
       </c>
       <c r="H197" t="s">
+        <v>611</v>
+      </c>
+      <c r="I197" t="s">
         <v>612</v>
-      </c>
-      <c r="I197" t="s">
-        <v>613</v>
       </c>
       <c r="J197" t="s">
         <v>22</v>
@@ -9586,10 +9583,10 @@
         <v>23</v>
       </c>
       <c r="H198" t="s">
+        <v>613</v>
+      </c>
+      <c r="I198" t="s">
         <v>614</v>
-      </c>
-      <c r="I198" t="s">
-        <v>615</v>
       </c>
       <c r="J198" t="s">
         <v>22</v>
@@ -9600,16 +9597,16 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B199" t="s">
+        <v>615</v>
+      </c>
+      <c r="C199" t="s">
         <v>616</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>617</v>
-      </c>
-      <c r="D199" t="s">
-        <v>618</v>
       </c>
       <c r="E199" t="s">
         <v>75</v>
@@ -9621,10 +9618,10 @@
         <v>23</v>
       </c>
       <c r="H199" t="s">
+        <v>618</v>
+      </c>
+      <c r="I199" t="s">
         <v>619</v>
-      </c>
-      <c r="I199" t="s">
-        <v>620</v>
       </c>
       <c r="J199" t="s">
         <v>22</v>
@@ -9656,13 +9653,13 @@
         <v>23</v>
       </c>
       <c r="H200" t="s">
+        <v>620</v>
+      </c>
+      <c r="I200" t="s">
         <v>621</v>
       </c>
-      <c r="I200" t="s">
+      <c r="J200" t="s">
         <v>622</v>
-      </c>
-      <c r="J200" t="s">
-        <v>623</v>
       </c>
       <c r="K200" t="s">
         <v>22</v>
@@ -9670,16 +9667,16 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B201" t="s">
+        <v>623</v>
+      </c>
+      <c r="C201" t="s">
         <v>624</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>625</v>
-      </c>
-      <c r="D201" t="s">
-        <v>626</v>
       </c>
       <c r="E201" t="s">
         <v>41</v>
@@ -9691,13 +9688,13 @@
         <v>23</v>
       </c>
       <c r="H201" t="s">
+        <v>626</v>
+      </c>
+      <c r="I201" t="s">
         <v>627</v>
       </c>
-      <c r="I201" t="s">
+      <c r="J201" t="s">
         <v>628</v>
-      </c>
-      <c r="J201" t="s">
-        <v>629</v>
       </c>
       <c r="K201" t="s">
         <v>22</v>
@@ -9726,10 +9723,10 @@
         <v>23</v>
       </c>
       <c r="H202" t="s">
+        <v>629</v>
+      </c>
+      <c r="I202" t="s">
         <v>630</v>
-      </c>
-      <c r="I202" t="s">
-        <v>631</v>
       </c>
       <c r="J202" t="s">
         <v>22</v>
@@ -9761,13 +9758,13 @@
         <v>23</v>
       </c>
       <c r="H203" t="s">
+        <v>631</v>
+      </c>
+      <c r="I203" t="s">
         <v>632</v>
       </c>
-      <c r="I203" t="s">
+      <c r="J203" t="s">
         <v>633</v>
-      </c>
-      <c r="J203" t="s">
-        <v>634</v>
       </c>
       <c r="K203" t="s">
         <v>22</v>
@@ -9796,10 +9793,10 @@
         <v>23</v>
       </c>
       <c r="H204" t="s">
+        <v>634</v>
+      </c>
+      <c r="I204" t="s">
         <v>635</v>
-      </c>
-      <c r="I204" t="s">
-        <v>636</v>
       </c>
       <c r="J204" t="s">
         <v>22</v>
@@ -9810,16 +9807,16 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B205" t="s">
+        <v>636</v>
+      </c>
+      <c r="C205" t="s">
         <v>637</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>638</v>
-      </c>
-      <c r="D205" t="s">
-        <v>639</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -9831,13 +9828,13 @@
         <v>23</v>
       </c>
       <c r="H205" t="s">
+        <v>639</v>
+      </c>
+      <c r="I205" t="s">
         <v>640</v>
       </c>
-      <c r="I205" t="s">
+      <c r="J205" t="s">
         <v>641</v>
-      </c>
-      <c r="J205" t="s">
-        <v>642</v>
       </c>
       <c r="K205" t="s">
         <v>22</v>
@@ -9866,13 +9863,13 @@
         <v>23</v>
       </c>
       <c r="H206" t="s">
+        <v>642</v>
+      </c>
+      <c r="I206" t="s">
         <v>643</v>
       </c>
-      <c r="I206" t="s">
+      <c r="J206" t="s">
         <v>644</v>
-      </c>
-      <c r="J206" t="s">
-        <v>645</v>
       </c>
       <c r="K206" t="s">
         <v>22</v>
@@ -9901,10 +9898,10 @@
         <v>23</v>
       </c>
       <c r="H207" t="s">
+        <v>645</v>
+      </c>
+      <c r="I207" t="s">
         <v>646</v>
-      </c>
-      <c r="I207" t="s">
-        <v>647</v>
       </c>
       <c r="J207" t="s">
         <v>22</v>
@@ -9915,31 +9912,31 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B208" t="s">
+        <v>647</v>
+      </c>
+      <c r="C208" t="s">
         <v>648</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>649</v>
-      </c>
-      <c r="D208" t="s">
-        <v>650</v>
       </c>
       <c r="E208" t="s">
         <v>241</v>
       </c>
       <c r="F208" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G208" t="s">
         <v>18</v>
       </c>
       <c r="H208" t="s">
+        <v>650</v>
+      </c>
+      <c r="I208" t="s">
         <v>651</v>
-      </c>
-      <c r="I208" t="s">
-        <v>652</v>
       </c>
       <c r="J208" t="s">
         <v>22</v>
@@ -9971,10 +9968,10 @@
         <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I209" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J209" t="s">
         <v>22</v>
@@ -9985,16 +9982,16 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B210" t="s">
+        <v>653</v>
+      </c>
+      <c r="C210" t="s">
         <v>654</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>655</v>
-      </c>
-      <c r="D210" t="s">
-        <v>656</v>
       </c>
       <c r="E210" t="s">
         <v>60</v>
@@ -10006,10 +10003,10 @@
         <v>23</v>
       </c>
       <c r="H210" t="s">
+        <v>656</v>
+      </c>
+      <c r="I210" t="s">
         <v>657</v>
-      </c>
-      <c r="I210" t="s">
-        <v>658</v>
       </c>
       <c r="J210" t="s">
         <v>22</v>
@@ -10044,10 +10041,10 @@
         <v>364</v>
       </c>
       <c r="I211" t="s">
+        <v>658</v>
+      </c>
+      <c r="J211" t="s">
         <v>659</v>
-      </c>
-      <c r="J211" t="s">
-        <v>660</v>
       </c>
       <c r="K211" t="s">
         <v>22</v>
@@ -10055,16 +10052,16 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B212" t="s">
+        <v>660</v>
+      </c>
+      <c r="C212" t="s">
         <v>661</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>662</v>
-      </c>
-      <c r="D212" t="s">
-        <v>663</v>
       </c>
       <c r="E212" t="s">
         <v>16</v>
@@ -10076,13 +10073,13 @@
         <v>23</v>
       </c>
       <c r="H212" t="s">
+        <v>663</v>
+      </c>
+      <c r="I212" t="s">
         <v>664</v>
       </c>
-      <c r="I212" t="s">
+      <c r="J212" t="s">
         <v>665</v>
-      </c>
-      <c r="J212" t="s">
-        <v>666</v>
       </c>
       <c r="K212" t="s">
         <v>22</v>
@@ -10111,13 +10108,13 @@
         <v>23</v>
       </c>
       <c r="H213" t="s">
+        <v>666</v>
+      </c>
+      <c r="I213" t="s">
         <v>667</v>
       </c>
-      <c r="I213" t="s">
+      <c r="J213" t="s">
         <v>668</v>
-      </c>
-      <c r="J213" t="s">
-        <v>669</v>
       </c>
       <c r="K213" t="s">
         <v>22</v>
@@ -10146,10 +10143,10 @@
         <v>23</v>
       </c>
       <c r="H214" t="s">
+        <v>669</v>
+      </c>
+      <c r="I214" t="s">
         <v>670</v>
-      </c>
-      <c r="I214" t="s">
-        <v>671</v>
       </c>
       <c r="J214" t="s">
         <v>22</v>
@@ -10160,16 +10157,16 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B215" t="s">
+        <v>671</v>
+      </c>
+      <c r="C215" t="s">
         <v>672</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>673</v>
-      </c>
-      <c r="D215" t="s">
-        <v>674</v>
       </c>
       <c r="E215" t="s">
         <v>16</v>
@@ -10181,13 +10178,13 @@
         <v>23</v>
       </c>
       <c r="H215" t="s">
+        <v>674</v>
+      </c>
+      <c r="I215" t="s">
         <v>675</v>
       </c>
-      <c r="I215" t="s">
+      <c r="J215" t="s">
         <v>676</v>
-      </c>
-      <c r="J215" t="s">
-        <v>677</v>
       </c>
       <c r="K215" t="s">
         <v>22</v>
@@ -10216,13 +10213,13 @@
         <v>18</v>
       </c>
       <c r="H216" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I216" t="s">
+        <v>677</v>
+      </c>
+      <c r="J216" t="s">
         <v>678</v>
-      </c>
-      <c r="J216" t="s">
-        <v>679</v>
       </c>
       <c r="K216" t="s">
         <v>22</v>
@@ -10251,10 +10248,10 @@
         <v>18</v>
       </c>
       <c r="H217" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="I217" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J217" t="s">
         <v>22</v>
@@ -10300,7 +10297,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B219" t="s">
         <v>12</v>
@@ -10335,16 +10332,16 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>681</v>
+      </c>
+      <c r="B220" t="s">
         <v>682</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>683</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>684</v>
-      </c>
-      <c r="D220" t="s">
-        <v>685</v>
       </c>
       <c r="E220" t="s">
         <v>12</v>
@@ -10370,16 +10367,16 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>685</v>
+      </c>
+      <c r="B221" t="s">
         <v>686</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>687</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>688</v>
-      </c>
-      <c r="D221" t="s">
-        <v>689</v>
       </c>
       <c r="E221" t="s">
         <v>12</v>
@@ -10405,16 +10402,16 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>689</v>
+      </c>
+      <c r="B222" t="s">
         <v>690</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>691</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>692</v>
-      </c>
-      <c r="D222" t="s">
-        <v>693</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
@@ -10440,16 +10437,16 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B223" t="s">
+        <v>693</v>
+      </c>
+      <c r="C223" t="s">
         <v>694</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>695</v>
-      </c>
-      <c r="D223" t="s">
-        <v>696</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
@@ -10475,16 +10472,16 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>696</v>
+      </c>
+      <c r="B224" t="s">
         <v>697</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>698</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>699</v>
-      </c>
-      <c r="D224" t="s">
-        <v>700</v>
       </c>
       <c r="E224" t="s">
         <v>41</v>
@@ -10496,13 +10493,13 @@
         <v>23</v>
       </c>
       <c r="H224" t="s">
+        <v>700</v>
+      </c>
+      <c r="I224" t="s">
         <v>701</v>
       </c>
-      <c r="I224" t="s">
+      <c r="J224" t="s">
         <v>702</v>
-      </c>
-      <c r="J224" t="s">
-        <v>703</v>
       </c>
       <c r="K224" t="s">
         <v>22</v>
@@ -10510,16 +10507,16 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>703</v>
+      </c>
+      <c r="B225" t="s">
         <v>704</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>705</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>706</v>
-      </c>
-      <c r="D225" t="s">
-        <v>707</v>
       </c>
       <c r="E225" t="s">
         <v>16</v>
@@ -10531,13 +10528,13 @@
         <v>23</v>
       </c>
       <c r="H225" t="s">
+        <v>707</v>
+      </c>
+      <c r="I225" t="s">
         <v>708</v>
       </c>
-      <c r="I225" t="s">
+      <c r="J225" t="s">
         <v>709</v>
-      </c>
-      <c r="J225" t="s">
-        <v>710</v>
       </c>
       <c r="K225" t="s">
         <v>22</v>
@@ -10566,13 +10563,13 @@
         <v>35</v>
       </c>
       <c r="H226" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I226" t="s">
+        <v>710</v>
+      </c>
+      <c r="J226" t="s">
         <v>711</v>
-      </c>
-      <c r="J226" t="s">
-        <v>712</v>
       </c>
       <c r="K226" t="s">
         <v>22</v>
@@ -10580,16 +10577,16 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B227" t="s">
+        <v>712</v>
+      </c>
+      <c r="C227" t="s">
         <v>713</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>714</v>
-      </c>
-      <c r="D227" t="s">
-        <v>715</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
@@ -10615,16 +10612,16 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>715</v>
+      </c>
+      <c r="B228" t="s">
         <v>716</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>717</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>718</v>
-      </c>
-      <c r="D228" t="s">
-        <v>719</v>
       </c>
       <c r="E228" t="s">
         <v>41</v>
@@ -10636,13 +10633,13 @@
         <v>35</v>
       </c>
       <c r="H228" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I228" t="s">
+        <v>719</v>
+      </c>
+      <c r="J228" t="s">
         <v>720</v>
-      </c>
-      <c r="J228" t="s">
-        <v>721</v>
       </c>
       <c r="K228" t="s">
         <v>22</v>
@@ -10650,16 +10647,16 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>721</v>
+      </c>
+      <c r="B229" t="s">
         <v>722</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>723</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>724</v>
-      </c>
-      <c r="D229" t="s">
-        <v>725</v>
       </c>
       <c r="E229" t="s">
         <v>16</v>
@@ -10671,13 +10668,13 @@
         <v>23</v>
       </c>
       <c r="H229" t="s">
+        <v>725</v>
+      </c>
+      <c r="I229" t="s">
         <v>726</v>
       </c>
-      <c r="I229" t="s">
-        <v>727</v>
-      </c>
       <c r="J229" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K229" t="s">
         <v>22</v>
@@ -10706,13 +10703,13 @@
         <v>23</v>
       </c>
       <c r="H230" t="s">
+        <v>727</v>
+      </c>
+      <c r="I230" t="s">
         <v>728</v>
       </c>
-      <c r="I230" t="s">
+      <c r="J230" t="s">
         <v>729</v>
-      </c>
-      <c r="J230" t="s">
-        <v>730</v>
       </c>
       <c r="K230" t="s">
         <v>22</v>
@@ -10755,7 +10752,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B232" t="s">
         <v>12</v>
@@ -10790,16 +10787,16 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>731</v>
+      </c>
+      <c r="B233" t="s">
         <v>732</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>733</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>734</v>
-      </c>
-      <c r="D233" t="s">
-        <v>735</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -10825,16 +10822,16 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B234" t="s">
+        <v>735</v>
+      </c>
+      <c r="C234" t="s">
         <v>736</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>737</v>
-      </c>
-      <c r="D234" t="s">
-        <v>738</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -10860,16 +10857,16 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B235" t="s">
+        <v>738</v>
+      </c>
+      <c r="C235" t="s">
         <v>739</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>740</v>
-      </c>
-      <c r="D235" t="s">
-        <v>741</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -10895,16 +10892,16 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>741</v>
+      </c>
+      <c r="B236" t="s">
         <v>742</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>743</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>744</v>
-      </c>
-      <c r="D236" t="s">
-        <v>745</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
@@ -10930,16 +10927,16 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B237" t="s">
+        <v>745</v>
+      </c>
+      <c r="C237" t="s">
         <v>746</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>747</v>
-      </c>
-      <c r="D237" t="s">
-        <v>748</v>
       </c>
       <c r="E237" t="s">
         <v>12</v>
@@ -10965,16 +10962,16 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B238" t="s">
+        <v>748</v>
+      </c>
+      <c r="C238" t="s">
         <v>749</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>750</v>
-      </c>
-      <c r="D238" t="s">
-        <v>751</v>
       </c>
       <c r="E238" t="s">
         <v>12</v>
@@ -11000,16 +10997,16 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B239" t="s">
+        <v>751</v>
+      </c>
+      <c r="C239" t="s">
         <v>752</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>753</v>
-      </c>
-      <c r="D239" t="s">
-        <v>754</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -11035,16 +11032,16 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B240" t="s">
+        <v>754</v>
+      </c>
+      <c r="C240" t="s">
         <v>755</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>756</v>
-      </c>
-      <c r="D240" t="s">
-        <v>757</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
